--- a/Reference/Matching_XL.xlsx
+++ b/Reference/Matching_XL.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\LMM\ArcTools\CN_Tools\CN_Tools\Reference\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="V:\Projects\5637-GIS JV - Aerial Mapping for NSA Naples\Development\Working\LMM\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -44,6 +44,30 @@
     <t xml:space="preserve"> </t>
   </si>
   <si>
+    <t xml:space="preserve">VA-TOPO-MAJR </t>
+  </si>
+  <si>
+    <t xml:space="preserve">VA-TOPO-MINR </t>
+  </si>
+  <si>
+    <t xml:space="preserve">VA-TOPO-MAJR-DEPR </t>
+  </si>
+  <si>
+    <t xml:space="preserve">VA-TOPO-MINR-DEPR </t>
+  </si>
+  <si>
+    <t xml:space="preserve">VA-TOPO-MINR-OBSC </t>
+  </si>
+  <si>
+    <t xml:space="preserve">VA-TOPO-MAJR-OBSC </t>
+  </si>
+  <si>
+    <t xml:space="preserve">VA-TOPO-MAJR-DEPO </t>
+  </si>
+  <si>
+    <t xml:space="preserve">VA-TOPO-MINR-DEPO </t>
+  </si>
+  <si>
     <t>3/BL</t>
   </si>
   <si>
@@ -53,6 +77,9 @@
     <t>0/BL</t>
   </si>
   <si>
+    <t xml:space="preserve">VA-TOPO-LABL </t>
+  </si>
+  <si>
     <t>4/BL</t>
   </si>
   <si>
@@ -593,6 +620,9 @@
     <t>LyrLineWt</t>
   </si>
   <si>
+    <t>VA BLDG BLDG</t>
+  </si>
+  <si>
     <t>ammunition storage area</t>
   </si>
   <si>
@@ -614,15 +644,36 @@
     <t>wastewater treat plant area</t>
   </si>
   <si>
+    <t>VA DTM BRKL</t>
+  </si>
+  <si>
+    <t>VA DTM EXTR</t>
+  </si>
+  <si>
     <t>topographic survey area</t>
   </si>
   <si>
+    <t>VA DTM INTR</t>
+  </si>
+  <si>
+    <t>VA DTM OBSC</t>
+  </si>
+  <si>
     <t>obscured area</t>
   </si>
   <si>
+    <t>VA DTM RAND</t>
+  </si>
+  <si>
     <t>digital elevation model point</t>
   </si>
   <si>
+    <t>VA DTM WATR</t>
+  </si>
+  <si>
+    <t>VA ROAD BRID</t>
+  </si>
+  <si>
     <t>footbridge area</t>
   </si>
   <si>
@@ -632,9 +683,15 @@
     <t>road bridge centerline</t>
   </si>
   <si>
+    <t>VA ROAD CURB</t>
+  </si>
+  <si>
     <t>curb line</t>
   </si>
   <si>
+    <t>VA ROAD EASP</t>
+  </si>
+  <si>
     <t>airfield surface area</t>
   </si>
   <si>
@@ -644,9 +701,15 @@
     <t>shed area</t>
   </si>
   <si>
+    <t>VA ROAD GRDR</t>
+  </si>
+  <si>
     <t>road guardrail line</t>
   </si>
   <si>
+    <t>VA ROAD STRI</t>
+  </si>
+  <si>
     <t>recreation feature line</t>
   </si>
   <si>
@@ -656,12 +719,21 @@
     <t>vehicle surface marking line</t>
   </si>
   <si>
+    <t>VA ROAD TW</t>
+  </si>
+  <si>
     <t>median area</t>
   </si>
   <si>
     <t>road area</t>
   </si>
   <si>
+    <t>VA ROAD UNPA</t>
+  </si>
+  <si>
+    <t>VA SITE BRUS</t>
+  </si>
+  <si>
     <t>flora species area</t>
   </si>
   <si>
@@ -671,6 +743,9 @@
     <t>land cover area</t>
   </si>
   <si>
+    <t>VA SITE CLVT</t>
+  </si>
+  <si>
     <t>culvert centerline</t>
   </si>
   <si>
@@ -683,21 +758,36 @@
     <t>storm sewer headwall line</t>
   </si>
   <si>
+    <t>VA SITE CONC</t>
+  </si>
+  <si>
     <t>swimming pool area</t>
   </si>
   <si>
+    <t>VA SITE DWAY</t>
+  </si>
+  <si>
     <t>vehicle driveway area</t>
   </si>
   <si>
+    <t>VA SITE FENC</t>
+  </si>
+  <si>
     <t>fence line</t>
   </si>
   <si>
     <t>gate line</t>
   </si>
   <si>
+    <t>VA SITE FLAG</t>
+  </si>
+  <si>
     <t>general improvement feat point</t>
   </si>
   <si>
+    <t>VA SITE GOLF</t>
+  </si>
+  <si>
     <t>golf course area</t>
   </si>
   <si>
@@ -716,15 +806,24 @@
     <t>golf course water hazard area</t>
   </si>
   <si>
+    <t>VA SITE GUYW</t>
+  </si>
+  <si>
     <t>utility pole guy point</t>
   </si>
   <si>
+    <t>VA SITE LV56</t>
+  </si>
+  <si>
     <t>airfield surface centerline</t>
   </si>
   <si>
     <t>airfield surface marking line</t>
   </si>
   <si>
+    <t>VA SITE MISC</t>
+  </si>
+  <si>
     <t>airfield surface point</t>
   </si>
   <si>
@@ -842,6 +941,9 @@
     <t>weigh station area</t>
   </si>
   <si>
+    <t>VA SITE PATI</t>
+  </si>
+  <si>
     <t>canopy pavilion area</t>
   </si>
   <si>
@@ -851,27 +953,48 @@
     <t>pedestrian sidewalk area</t>
   </si>
   <si>
+    <t>VA SITE PIPE</t>
+  </si>
+  <si>
     <t>pipeline line</t>
   </si>
   <si>
+    <t>VA SITE PKNG</t>
+  </si>
+  <si>
     <t>vehicle parking area</t>
   </si>
   <si>
+    <t>VA SITE RAIL</t>
+  </si>
+  <si>
     <t>railroad bridge centerline</t>
   </si>
   <si>
     <t>railroad centerline</t>
   </si>
   <si>
+    <t>VA SITE RETA</t>
+  </si>
+  <si>
     <t>wall line</t>
   </si>
   <si>
+    <t>VA SITE ROCK</t>
+  </si>
+  <si>
+    <t>VA SITE SIGN</t>
+  </si>
+  <si>
     <t>road feature area</t>
   </si>
   <si>
     <t>road feature point</t>
   </si>
   <si>
+    <t>VA SITE SPRT</t>
+  </si>
+  <si>
     <t>ATH COURT</t>
   </si>
   <si>
@@ -887,27 +1010,51 @@
     <t>playground area</t>
   </si>
   <si>
+    <t>VA SITE SWLK</t>
+  </si>
+  <si>
     <t>CRT PTH</t>
   </si>
   <si>
     <t>CRT PTH DT</t>
   </si>
   <si>
+    <t>VA SITE TANK</t>
+  </si>
+  <si>
     <t>unknown tank area</t>
   </si>
   <si>
+    <t>VA SITE TRAN</t>
+  </si>
+  <si>
     <t>utility pole tower area</t>
   </si>
   <si>
     <t>utility pole tower point</t>
   </si>
   <si>
+    <t>VA SITE TREE</t>
+  </si>
+  <si>
+    <t>VA SITE TRLS</t>
+  </si>
+  <si>
     <t>pedestrian trail centerline</t>
   </si>
   <si>
     <t>recreation trail centerline</t>
   </si>
   <si>
+    <t>VA SITE UNPK</t>
+  </si>
+  <si>
+    <t>VA SITE WALL</t>
+  </si>
+  <si>
+    <t>VA SITE WATR</t>
+  </si>
+  <si>
     <t>island area</t>
   </si>
   <si>
@@ -923,30 +1070,51 @@
     <t>surface water course centerline</t>
   </si>
   <si>
+    <t>VA SURV CTRL</t>
+  </si>
+  <si>
     <t>aerial photo center point</t>
   </si>
   <si>
     <t>control point</t>
   </si>
   <si>
+    <t>VA TOPO SPOT</t>
+  </si>
+  <si>
     <t>spot elevation point</t>
   </si>
   <si>
+    <t>VA UTIL ELEP</t>
+  </si>
+  <si>
+    <t>VA UTIL IRRI</t>
+  </si>
+  <si>
     <t>dam area</t>
   </si>
   <si>
     <t>levee berm area</t>
   </si>
   <si>
+    <t>VA UTIL LITP</t>
+  </si>
+  <si>
     <t>airfield light point</t>
   </si>
   <si>
     <t>exterior lighting point</t>
   </si>
   <si>
+    <t>VA UTIL MANH</t>
+  </si>
+  <si>
     <t>ut undefined feature point</t>
   </si>
   <si>
+    <t>VA UTIL STRM</t>
+  </si>
+  <si>
     <t>gravity drain area</t>
   </si>
   <si>
@@ -959,9 +1127,15 @@
     <t>storm sewer inlet point</t>
   </si>
   <si>
+    <t>VA UTIL TRAF</t>
+  </si>
+  <si>
     <t>TRAF W</t>
   </si>
   <si>
+    <t>VA UTIL WATR</t>
+  </si>
+  <si>
     <t>water hydrant point</t>
   </si>
   <si>
@@ -975,180 +1149,6 @@
   </si>
   <si>
     <t>Feature_Class</t>
-  </si>
-  <si>
-    <t>VA_BLDG_BLDG</t>
-  </si>
-  <si>
-    <t>VA_DTM_BRKL</t>
-  </si>
-  <si>
-    <t>VA_DTM_EXTR</t>
-  </si>
-  <si>
-    <t>VA_DTM_INTR</t>
-  </si>
-  <si>
-    <t>VA_DTM_OBSC</t>
-  </si>
-  <si>
-    <t>VA_DTM_RAND</t>
-  </si>
-  <si>
-    <t>VA_DTM_WATR</t>
-  </si>
-  <si>
-    <t>VA_ROAD_BRID</t>
-  </si>
-  <si>
-    <t>VA_ROAD_CURB</t>
-  </si>
-  <si>
-    <t>VA_ROAD_EASP</t>
-  </si>
-  <si>
-    <t>VA_ROAD_GRDR</t>
-  </si>
-  <si>
-    <t>VA_ROAD_STRI</t>
-  </si>
-  <si>
-    <t>VA_ROAD_TW</t>
-  </si>
-  <si>
-    <t>VA_ROAD_UNPA</t>
-  </si>
-  <si>
-    <t>VA_SITE_BRUS</t>
-  </si>
-  <si>
-    <t>VA_SITE_CLVT</t>
-  </si>
-  <si>
-    <t>VA_SITE_CONC</t>
-  </si>
-  <si>
-    <t>VA_SITE_DWAY</t>
-  </si>
-  <si>
-    <t>VA_SITE_FENC</t>
-  </si>
-  <si>
-    <t>VA_SITE_FLAG</t>
-  </si>
-  <si>
-    <t>VA_SITE_GOLF</t>
-  </si>
-  <si>
-    <t>VA_SITE_GUYW</t>
-  </si>
-  <si>
-    <t>VA_SITE_LV56</t>
-  </si>
-  <si>
-    <t>VA_SITE_MISC</t>
-  </si>
-  <si>
-    <t>VA_SITE_PATI</t>
-  </si>
-  <si>
-    <t>VA_SITE_PIPE</t>
-  </si>
-  <si>
-    <t>VA_SITE_PKNG</t>
-  </si>
-  <si>
-    <t>VA_SITE_RAIL</t>
-  </si>
-  <si>
-    <t>VA_SITE_RETA</t>
-  </si>
-  <si>
-    <t>VA_SITE_ROCK</t>
-  </si>
-  <si>
-    <t>VA_SITE_SIGN</t>
-  </si>
-  <si>
-    <t>VA_SITE_SPRT</t>
-  </si>
-  <si>
-    <t>VA_SITE_SWLK</t>
-  </si>
-  <si>
-    <t>VA_SITE_TANK</t>
-  </si>
-  <si>
-    <t>VA_SITE_TRAN</t>
-  </si>
-  <si>
-    <t>VA_SITE_TREE</t>
-  </si>
-  <si>
-    <t>VA_SITE_TRLS</t>
-  </si>
-  <si>
-    <t>VA_SITE_UNPK</t>
-  </si>
-  <si>
-    <t>VA_SITE_WALL</t>
-  </si>
-  <si>
-    <t>VA_SITE_WATR</t>
-  </si>
-  <si>
-    <t>VA_SURV_CTRL</t>
-  </si>
-  <si>
-    <t>VA_TOPO_SPOT</t>
-  </si>
-  <si>
-    <t>VA_UTIL_ELEP</t>
-  </si>
-  <si>
-    <t>VA_UTIL_IRRI</t>
-  </si>
-  <si>
-    <t>VA_UTIL_LITP</t>
-  </si>
-  <si>
-    <t>VA_UTIL_MANH</t>
-  </si>
-  <si>
-    <t>VA_UTIL_STRM</t>
-  </si>
-  <si>
-    <t>VA_UTIL_TRAF</t>
-  </si>
-  <si>
-    <t>VA_UTIL_WATR</t>
-  </si>
-  <si>
-    <t>VA_TOPO_LABL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">VA_TOPO_MAJR </t>
-  </si>
-  <si>
-    <t xml:space="preserve">VA_TOPO_MAJR_DEPO </t>
-  </si>
-  <si>
-    <t xml:space="preserve">VA_TOPO_MAJR_DEPR </t>
-  </si>
-  <si>
-    <t xml:space="preserve">VA_TOPO_MAJR_OBSC </t>
-  </si>
-  <si>
-    <t xml:space="preserve">VA_TOPO_MINR </t>
-  </si>
-  <si>
-    <t xml:space="preserve">VA_TOPO_MINR_DEPO </t>
-  </si>
-  <si>
-    <t xml:space="preserve">VA_TOPO_MINR_DEPR </t>
-  </si>
-  <si>
-    <t xml:space="preserve">VA_TOPO_MINR_OBSC </t>
   </si>
 </sst>
 </file>
@@ -1710,8 +1710,8 @@
   <dimension ref="A1:J242"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A188" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J198" sqref="J198"/>
+      <pane ySplit="1" topLeftCell="A92" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I1" sqref="I1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1722,7 +1722,7 @@
     <col min="4" max="4" width="6" style="18" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="5.85546875" style="34" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="12.28515625" style="34" customWidth="1"/>
-    <col min="7" max="7" width="10" style="34" customWidth="1"/>
+    <col min="7" max="7" width="7.42578125" style="34" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="15.5703125" style="18" customWidth="1"/>
     <col min="9" max="9" width="29" style="18" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="45.28515625" style="2" customWidth="1"/>
@@ -1731,31 +1731,31 @@
   <sheetData>
     <row r="1" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="9" t="s">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="B1" s="9" t="s">
-        <v>187</v>
+        <v>196</v>
       </c>
       <c r="C1" s="15" t="s">
-        <v>184</v>
+        <v>193</v>
       </c>
       <c r="D1" s="15" t="s">
-        <v>183</v>
+        <v>192</v>
       </c>
       <c r="E1" s="15" t="s">
-        <v>185</v>
+        <v>194</v>
       </c>
       <c r="F1" s="15" t="s">
-        <v>315</v>
+        <v>373</v>
       </c>
       <c r="G1" s="15" t="s">
-        <v>188</v>
+        <v>197</v>
       </c>
       <c r="H1" s="15" t="s">
-        <v>186</v>
+        <v>195</v>
       </c>
       <c r="I1" s="15" t="s">
-        <v>316</v>
+        <v>374</v>
       </c>
     </row>
     <row r="2" spans="1:10" s="3" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1764,10 +1764,10 @@
       </c>
       <c r="B2" s="1" t="str">
         <f t="shared" ref="B2:B65" si="0">CONCATENATE(C2,D2,E2,F2,G2,H2)</f>
-        <v>VA_BLDG_BLDG13402BKW</v>
+        <v>VA BLDG BLDG13402BKW</v>
       </c>
       <c r="C2" s="18" t="s">
-        <v>317</v>
+        <v>198</v>
       </c>
       <c r="D2" s="19">
         <v>13</v>
@@ -1782,10 +1782,10 @@
         <v>2</v>
       </c>
       <c r="H2" s="18" t="s">
-        <v>34</v>
+        <v>43</v>
       </c>
       <c r="I2" s="18" t="s">
-        <v>189</v>
+        <v>199</v>
       </c>
       <c r="J2" s="2"/>
     </row>
@@ -1795,10 +1795,10 @@
       </c>
       <c r="B3" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>VA_BLDG_BLDG13402BUNKER</v>
+        <v>VA BLDG BLDG13402BUNKER</v>
       </c>
       <c r="C3" s="18" t="s">
-        <v>317</v>
+        <v>198</v>
       </c>
       <c r="D3" s="19">
         <v>13</v>
@@ -1813,10 +1813,10 @@
         <v>2</v>
       </c>
       <c r="H3" s="18" t="s">
-        <v>35</v>
+        <v>44</v>
       </c>
       <c r="I3" s="18" t="s">
-        <v>189</v>
+        <v>199</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1825,10 +1825,10 @@
       </c>
       <c r="B4" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>VA_BLDG_BLDG13402SILO</v>
+        <v>VA BLDG BLDG13402SILO</v>
       </c>
       <c r="C4" s="18" t="s">
-        <v>317</v>
+        <v>198</v>
       </c>
       <c r="D4" s="19">
         <v>13</v>
@@ -1843,10 +1843,10 @@
         <v>2</v>
       </c>
       <c r="H4" s="18" t="s">
-        <v>135</v>
+        <v>144</v>
       </c>
       <c r="I4" s="18" t="s">
-        <v>190</v>
+        <v>200</v>
       </c>
     </row>
     <row r="5" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1855,10 +1855,10 @@
       </c>
       <c r="B5" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>VA_BLDG_BLDG13432FOUND</v>
+        <v>VA BLDG BLDG13432FOUND</v>
       </c>
       <c r="C5" s="18" t="s">
-        <v>317</v>
+        <v>198</v>
       </c>
       <c r="D5" s="28">
         <v>13</v>
@@ -1873,10 +1873,10 @@
         <v>2</v>
       </c>
       <c r="H5" s="18" t="s">
-        <v>136</v>
+        <v>145</v>
       </c>
       <c r="I5" s="18" t="s">
-        <v>191</v>
+        <v>201</v>
       </c>
     </row>
     <row r="6" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1885,10 +1885,10 @@
       </c>
       <c r="B6" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>VA_BLDG_BLDG13402B</v>
+        <v>VA BLDG BLDG13402B</v>
       </c>
       <c r="C6" s="18" t="s">
-        <v>317</v>
+        <v>198</v>
       </c>
       <c r="D6" s="19">
         <v>13</v>
@@ -1903,10 +1903,10 @@
         <v>2</v>
       </c>
       <c r="H6" s="18" t="s">
-        <v>146</v>
+        <v>155</v>
       </c>
       <c r="I6" s="18" t="s">
-        <v>192</v>
+        <v>202</v>
       </c>
     </row>
     <row r="7" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1915,10 +1915,10 @@
       </c>
       <c r="B7" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>VA_BLDG_BLDG13402GREENHOUSE</v>
+        <v>VA BLDG BLDG13402GREENHOUSE</v>
       </c>
       <c r="C7" s="18" t="s">
-        <v>317</v>
+        <v>198</v>
       </c>
       <c r="D7" s="19">
         <v>13</v>
@@ -1933,10 +1933,10 @@
         <v>2</v>
       </c>
       <c r="H7" s="18" t="s">
-        <v>147</v>
+        <v>156</v>
       </c>
       <c r="I7" s="18" t="s">
-        <v>192</v>
+        <v>202</v>
       </c>
     </row>
     <row r="8" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1945,10 +1945,10 @@
       </c>
       <c r="B8" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>VA_BLDG_BLDG13402MBH</v>
+        <v>VA BLDG BLDG13402MBH</v>
       </c>
       <c r="C8" s="18" t="s">
-        <v>317</v>
+        <v>198</v>
       </c>
       <c r="D8" s="19">
         <v>13</v>
@@ -1963,10 +1963,10 @@
         <v>2</v>
       </c>
       <c r="H8" s="18" t="s">
-        <v>148</v>
+        <v>157</v>
       </c>
       <c r="I8" s="18" t="s">
-        <v>192</v>
+        <v>202</v>
       </c>
       <c r="J8" s="44"/>
     </row>
@@ -1976,10 +1976,10 @@
       </c>
       <c r="B9" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>VA_BLDG_BLDG13432RUIN</v>
+        <v>VA BLDG BLDG13432RUIN</v>
       </c>
       <c r="C9" s="18" t="s">
-        <v>317</v>
+        <v>198</v>
       </c>
       <c r="D9" s="19">
         <v>13</v>
@@ -1994,10 +1994,10 @@
         <v>2</v>
       </c>
       <c r="H9" s="18" t="s">
-        <v>149</v>
+        <v>158</v>
       </c>
       <c r="I9" s="18" t="s">
-        <v>192</v>
+        <v>202</v>
       </c>
     </row>
     <row r="10" spans="1:10" s="8" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -2006,10 +2006,10 @@
       </c>
       <c r="B10" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>VA_BLDG_BLDG13452TENT</v>
+        <v>VA BLDG BLDG13452TENT</v>
       </c>
       <c r="C10" s="20" t="s">
-        <v>317</v>
+        <v>198</v>
       </c>
       <c r="D10" s="21">
         <v>13</v>
@@ -2024,10 +2024,10 @@
         <v>2</v>
       </c>
       <c r="H10" s="20" t="s">
-        <v>150</v>
+        <v>159</v>
       </c>
       <c r="I10" s="20" t="s">
-        <v>192</v>
+        <v>202</v>
       </c>
     </row>
     <row r="11" spans="1:10" s="10" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -2036,10 +2036,10 @@
       </c>
       <c r="B11" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>VA_BLDG_BLDG13402TOWER</v>
+        <v>VA BLDG BLDG13402TOWER</v>
       </c>
       <c r="C11" s="22" t="s">
-        <v>317</v>
+        <v>198</v>
       </c>
       <c r="D11" s="23">
         <v>13</v>
@@ -2054,10 +2054,10 @@
         <v>2</v>
       </c>
       <c r="H11" s="22" t="s">
-        <v>156</v>
+        <v>165</v>
       </c>
       <c r="I11" s="22" t="s">
-        <v>193</v>
+        <v>203</v>
       </c>
       <c r="J11" s="45"/>
     </row>
@@ -2067,10 +2067,10 @@
       </c>
       <c r="B12" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>VA_BLDG_BLDG13</v>
+        <v>VA BLDG BLDG13</v>
       </c>
       <c r="C12" s="24" t="s">
-        <v>317</v>
+        <v>198</v>
       </c>
       <c r="D12" s="49">
         <v>13</v>
@@ -2080,7 +2080,7 @@
       <c r="G12" s="49"/>
       <c r="H12" s="24"/>
       <c r="I12" s="24" t="s">
-        <v>194</v>
+        <v>204</v>
       </c>
     </row>
     <row r="13" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -2089,10 +2089,10 @@
       </c>
       <c r="B13" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>VA_BLDG_BLDG13402TRP</v>
+        <v>VA BLDG BLDG13402TRP</v>
       </c>
       <c r="C13" s="18" t="s">
-        <v>317</v>
+        <v>198</v>
       </c>
       <c r="D13" s="48">
         <v>13</v>
@@ -2107,10 +2107,10 @@
         <v>2</v>
       </c>
       <c r="H13" s="16" t="s">
-        <v>180</v>
+        <v>189</v>
       </c>
       <c r="I13" s="18" t="s">
-        <v>195</v>
+        <v>205</v>
       </c>
     </row>
     <row r="14" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -2119,10 +2119,10 @@
       </c>
       <c r="B14" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>VA_DTM_BRKL52600</v>
+        <v>VA DTM BRKL52600</v>
       </c>
       <c r="C14" s="18" t="s">
-        <v>318</v>
+        <v>206</v>
       </c>
       <c r="D14" s="19">
         <v>52</v>
@@ -2137,7 +2137,7 @@
         <v>0</v>
       </c>
       <c r="I14" s="18" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
     </row>
     <row r="15" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -2146,10 +2146,10 @@
       </c>
       <c r="B15" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>VA_DTM_EXTR51400</v>
+        <v>VA DTM EXTR51400</v>
       </c>
       <c r="C15" s="18" t="s">
-        <v>319</v>
+        <v>207</v>
       </c>
       <c r="D15" s="19">
         <v>51</v>
@@ -2164,7 +2164,7 @@
         <v>0</v>
       </c>
       <c r="I15" s="18" t="s">
-        <v>196</v>
+        <v>208</v>
       </c>
     </row>
     <row r="16" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -2173,10 +2173,10 @@
       </c>
       <c r="B16" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>VA_DTM_INTR50TOPO','HIGH','LOW','INST','NON-CANTONMENT','CANTONMENT')</v>
+        <v>VA DTM INTR50TOPO','HIGH','LOW','INST','NON-CANTONMENT','CANTONMENT')</v>
       </c>
       <c r="C16" s="18" t="s">
-        <v>320</v>
+        <v>209</v>
       </c>
       <c r="D16" s="19">
         <v>50</v>
@@ -2185,10 +2185,10 @@
       <c r="F16" s="19"/>
       <c r="G16" s="19"/>
       <c r="H16" s="36" t="s">
-        <v>155</v>
+        <v>164</v>
       </c>
       <c r="I16" s="18" t="s">
-        <v>196</v>
+        <v>208</v>
       </c>
     </row>
     <row r="17" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -2197,10 +2197,10 @@
       </c>
       <c r="B17" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>VA_DTM_OBSC58102OBSC</v>
+        <v>VA DTM OBSC58102OBSC</v>
       </c>
       <c r="C17" s="16" t="s">
-        <v>321</v>
+        <v>210</v>
       </c>
       <c r="D17" s="19">
         <v>58</v>
@@ -2215,10 +2215,10 @@
         <v>2</v>
       </c>
       <c r="H17" s="18" t="s">
-        <v>107</v>
+        <v>116</v>
       </c>
       <c r="I17" s="18" t="s">
-        <v>197</v>
+        <v>211</v>
       </c>
     </row>
     <row r="18" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -2227,10 +2227,10 @@
       </c>
       <c r="B18" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>VA_DTM_RAND53403</v>
+        <v>VA DTM RAND53403</v>
       </c>
       <c r="C18" s="18" t="s">
-        <v>322</v>
+        <v>212</v>
       </c>
       <c r="D18" s="19">
         <v>53</v>
@@ -2245,7 +2245,7 @@
         <v>3</v>
       </c>
       <c r="I18" s="18" t="s">
-        <v>198</v>
+        <v>213</v>
       </c>
       <c r="J18" s="44"/>
     </row>
@@ -2255,10 +2255,10 @@
       </c>
       <c r="B19" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>VA_DTM_WATR55762</v>
+        <v>VA DTM WATR55762</v>
       </c>
       <c r="C19" s="18" t="s">
-        <v>323</v>
+        <v>214</v>
       </c>
       <c r="D19" s="19">
         <v>55</v>
@@ -2273,7 +2273,7 @@
         <v>2</v>
       </c>
       <c r="I19" s="18" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
     </row>
     <row r="20" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -2282,10 +2282,10 @@
       </c>
       <c r="B20" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>VA_ROAD_BRID11302PBR</v>
+        <v>VA ROAD BRID11302PBR</v>
       </c>
       <c r="C20" s="18" t="s">
-        <v>324</v>
+        <v>215</v>
       </c>
       <c r="D20" s="19">
         <v>11</v>
@@ -2300,10 +2300,10 @@
         <v>2</v>
       </c>
       <c r="H20" s="18" t="s">
-        <v>67</v>
+        <v>76</v>
       </c>
       <c r="I20" s="18" t="s">
-        <v>199</v>
+        <v>216</v>
       </c>
     </row>
     <row r="21" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -2312,10 +2312,10 @@
       </c>
       <c r="B21" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>VA_ROAD_BRID11302BR</v>
+        <v>VA ROAD BRID11302BR</v>
       </c>
       <c r="C21" s="18" t="s">
-        <v>324</v>
+        <v>215</v>
       </c>
       <c r="D21" s="19">
         <v>11</v>
@@ -2330,10 +2330,10 @@
         <v>2</v>
       </c>
       <c r="H21" s="18" t="s">
-        <v>125</v>
+        <v>134</v>
       </c>
       <c r="I21" s="18" t="s">
-        <v>200</v>
+        <v>217</v>
       </c>
     </row>
     <row r="22" spans="1:10" s="12" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -2342,10 +2342,10 @@
       </c>
       <c r="B22" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>VA_ROAD_BRID11310</v>
+        <v>VA ROAD BRID11310</v>
       </c>
       <c r="C22" s="25" t="s">
-        <v>324</v>
+        <v>215</v>
       </c>
       <c r="D22" s="26">
         <v>11</v>
@@ -2361,7 +2361,7 @@
       </c>
       <c r="H22" s="25"/>
       <c r="I22" s="25" t="s">
-        <v>201</v>
+        <v>218</v>
       </c>
       <c r="J22" s="47"/>
     </row>
@@ -2371,10 +2371,10 @@
       </c>
       <c r="B23" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>VA_ROAD_CURB2302</v>
+        <v>VA ROAD CURB2302</v>
       </c>
       <c r="C23" s="18" t="s">
-        <v>325</v>
+        <v>219</v>
       </c>
       <c r="D23" s="19">
         <v>2</v>
@@ -2389,7 +2389,7 @@
         <v>2</v>
       </c>
       <c r="I23" s="18" t="s">
-        <v>202</v>
+        <v>220</v>
       </c>
     </row>
     <row r="24" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -2398,10 +2398,10 @@
       </c>
       <c r="B24" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>VA_ROAD_CURB2322</v>
+        <v>VA ROAD CURB2322</v>
       </c>
       <c r="C24" s="18" t="s">
-        <v>325</v>
+        <v>219</v>
       </c>
       <c r="D24" s="19">
         <v>2</v>
@@ -2416,7 +2416,7 @@
         <v>2</v>
       </c>
       <c r="I24" s="16" t="s">
-        <v>202</v>
+        <v>220</v>
       </c>
     </row>
     <row r="25" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -2425,10 +2425,10 @@
       </c>
       <c r="B25" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>VA_ROAD_EASP14400ACC</v>
+        <v>VA ROAD EASP14400ACC</v>
       </c>
       <c r="C25" s="18" t="s">
-        <v>326</v>
+        <v>221</v>
       </c>
       <c r="D25" s="19">
         <v>14</v>
@@ -2443,10 +2443,10 @@
         <v>0</v>
       </c>
       <c r="H25" s="18" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="I25" s="18" t="s">
-        <v>203</v>
+        <v>222</v>
       </c>
     </row>
     <row r="26" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -2455,10 +2455,10 @@
       </c>
       <c r="B26" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>VA_ROAD_EASP4330AAA</v>
+        <v>VA ROAD EASP4330AAA</v>
       </c>
       <c r="C26" s="18" t="s">
-        <v>326</v>
+        <v>221</v>
       </c>
       <c r="D26" s="19">
         <v>4</v>
@@ -2473,10 +2473,10 @@
         <v>0</v>
       </c>
       <c r="H26" s="18" t="s">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="I26" s="18" t="s">
-        <v>203</v>
+        <v>222</v>
       </c>
     </row>
     <row r="27" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -2485,10 +2485,10 @@
       </c>
       <c r="B27" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>VA_ROAD_EASP4330ACA</v>
+        <v>VA ROAD EASP4330ACA</v>
       </c>
       <c r="C27" s="18" t="s">
-        <v>326</v>
+        <v>221</v>
       </c>
       <c r="D27" s="19">
         <v>4</v>
@@ -2503,10 +2503,10 @@
         <v>0</v>
       </c>
       <c r="H27" s="18" t="s">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="I27" s="18" t="s">
-        <v>203</v>
+        <v>222</v>
       </c>
     </row>
     <row r="28" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -2515,10 +2515,10 @@
       </c>
       <c r="B28" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>VA_ROAD_EASP4330AEA</v>
+        <v>VA ROAD EASP4330AEA</v>
       </c>
       <c r="C28" s="18" t="s">
-        <v>326</v>
+        <v>221</v>
       </c>
       <c r="D28" s="19">
         <v>4</v>
@@ -2533,10 +2533,10 @@
         <v>0</v>
       </c>
       <c r="H28" s="18" t="s">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="I28" s="18" t="s">
-        <v>203</v>
+        <v>222</v>
       </c>
     </row>
     <row r="29" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -2545,10 +2545,10 @@
       </c>
       <c r="B29" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>VA_ROAD_EASP4330AHA</v>
+        <v>VA ROAD EASP4330AHA</v>
       </c>
       <c r="C29" s="18" t="s">
-        <v>326</v>
+        <v>221</v>
       </c>
       <c r="D29" s="19">
         <v>4</v>
@@ -2563,10 +2563,10 @@
         <v>0</v>
       </c>
       <c r="H29" s="18" t="s">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="I29" s="18" t="s">
-        <v>203</v>
+        <v>222</v>
       </c>
     </row>
     <row r="30" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -2575,10 +2575,10 @@
       </c>
       <c r="B30" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>VA_ROAD_EASP4330APA</v>
+        <v>VA ROAD EASP4330APA</v>
       </c>
       <c r="C30" s="18" t="s">
-        <v>326</v>
+        <v>221</v>
       </c>
       <c r="D30" s="19">
         <v>4</v>
@@ -2593,10 +2593,10 @@
         <v>0</v>
       </c>
       <c r="H30" s="18" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="I30" s="18" t="s">
-        <v>203</v>
+        <v>222</v>
       </c>
     </row>
     <row r="31" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -2605,10 +2605,10 @@
       </c>
       <c r="B31" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>VA_ROAD_EASP4330ARA</v>
+        <v>VA ROAD EASP4330ARA</v>
       </c>
       <c r="C31" s="18" t="s">
-        <v>326</v>
+        <v>221</v>
       </c>
       <c r="D31" s="19">
         <v>4</v>
@@ -2623,10 +2623,10 @@
         <v>0</v>
       </c>
       <c r="H31" s="18" t="s">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="I31" s="18" t="s">
-        <v>203</v>
+        <v>222</v>
       </c>
     </row>
     <row r="32" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -2635,10 +2635,10 @@
       </c>
       <c r="B32" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>VA_ROAD_EASP4330ASA</v>
+        <v>VA ROAD EASP4330ASA</v>
       </c>
       <c r="C32" s="18" t="s">
-        <v>326</v>
+        <v>221</v>
       </c>
       <c r="D32" s="19">
         <v>4</v>
@@ -2653,10 +2653,10 @@
         <v>0</v>
       </c>
       <c r="H32" s="27" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="I32" s="18" t="s">
-        <v>203</v>
+        <v>222</v>
       </c>
     </row>
     <row r="33" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -2665,10 +2665,10 @@
       </c>
       <c r="B33" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>VA_ROAD_EASP4330ATA</v>
+        <v>VA ROAD EASP4330ATA</v>
       </c>
       <c r="C33" s="18" t="s">
-        <v>326</v>
+        <v>221</v>
       </c>
       <c r="D33" s="19">
         <v>4</v>
@@ -2683,10 +2683,10 @@
         <v>0</v>
       </c>
       <c r="H33" s="18" t="s">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="I33" s="18" t="s">
-        <v>203</v>
+        <v>222</v>
       </c>
     </row>
     <row r="34" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -2695,10 +2695,10 @@
       </c>
       <c r="B34" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>VA_ROAD_EASP4330SHA</v>
+        <v>VA ROAD EASP4330SHA</v>
       </c>
       <c r="C34" s="18" t="s">
-        <v>326</v>
+        <v>221</v>
       </c>
       <c r="D34" s="19">
         <v>4</v>
@@ -2713,10 +2713,10 @@
         <v>0</v>
       </c>
       <c r="H34" s="18" t="s">
-        <v>131</v>
+        <v>140</v>
       </c>
       <c r="I34" s="18" t="s">
-        <v>204</v>
+        <v>223</v>
       </c>
     </row>
     <row r="35" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -2725,10 +2725,10 @@
       </c>
       <c r="B35" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>VA_ROAD_EASP4330SHC</v>
+        <v>VA ROAD EASP4330SHC</v>
       </c>
       <c r="C35" s="18" t="s">
-        <v>326</v>
+        <v>221</v>
       </c>
       <c r="D35" s="19">
         <v>4</v>
@@ -2743,10 +2743,10 @@
         <v>0</v>
       </c>
       <c r="H35" s="18" t="s">
-        <v>132</v>
+        <v>141</v>
       </c>
       <c r="I35" s="18" t="s">
-        <v>204</v>
+        <v>223</v>
       </c>
     </row>
     <row r="36" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -2755,10 +2755,10 @@
       </c>
       <c r="B36" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>VA_ROAD_EASP13402SHED</v>
+        <v>VA ROAD EASP13402SHED</v>
       </c>
       <c r="C36" s="27" t="s">
-        <v>326</v>
+        <v>221</v>
       </c>
       <c r="D36" s="19">
         <v>13</v>
@@ -2773,10 +2773,10 @@
         <v>2</v>
       </c>
       <c r="H36" s="17" t="s">
-        <v>134</v>
+        <v>143</v>
       </c>
       <c r="I36" s="18" t="s">
-        <v>205</v>
+        <v>224</v>
       </c>
     </row>
     <row r="37" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -2785,10 +2785,10 @@
       </c>
       <c r="B37" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>VA_ROAD_EASP4330A</v>
+        <v>VA ROAD EASP4330A</v>
       </c>
       <c r="C37" s="18" t="s">
-        <v>326</v>
+        <v>221</v>
       </c>
       <c r="D37" s="14">
         <v>4</v>
@@ -2803,10 +2803,10 @@
         <v>0</v>
       </c>
       <c r="H37" s="17" t="s">
-        <v>137</v>
+        <v>146</v>
       </c>
       <c r="I37" s="18" t="s">
-        <v>191</v>
+        <v>201</v>
       </c>
     </row>
     <row r="38" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -2815,10 +2815,10 @@
       </c>
       <c r="B38" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>VA_ROAD_GRDR18600</v>
+        <v>VA ROAD GRDR18600</v>
       </c>
       <c r="C38" s="18" t="s">
-        <v>327</v>
+        <v>225</v>
       </c>
       <c r="D38" s="19">
         <v>18</v>
@@ -2833,7 +2833,7 @@
         <v>0</v>
       </c>
       <c r="I38" s="18" t="s">
-        <v>206</v>
+        <v>226</v>
       </c>
     </row>
     <row r="39" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -2842,10 +2842,10 @@
       </c>
       <c r="B39" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>VA_ROAD_GRDR18620</v>
+        <v>VA ROAD GRDR18620</v>
       </c>
       <c r="C39" s="18" t="s">
-        <v>327</v>
+        <v>225</v>
       </c>
       <c r="D39" s="19">
         <v>18</v>
@@ -2860,7 +2860,7 @@
         <v>0</v>
       </c>
       <c r="I39" s="18" t="s">
-        <v>206</v>
+        <v>226</v>
       </c>
     </row>
     <row r="40" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -2869,10 +2869,10 @@
       </c>
       <c r="B40" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>VA_ROAD_STRI23101</v>
+        <v>VA ROAD STRI23101</v>
       </c>
       <c r="C40" s="18" t="s">
-        <v>328</v>
+        <v>227</v>
       </c>
       <c r="D40" s="19">
         <v>23</v>
@@ -2887,7 +2887,7 @@
         <v>1</v>
       </c>
       <c r="I40" s="18" t="s">
-        <v>207</v>
+        <v>228</v>
       </c>
     </row>
     <row r="41" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -2896,10 +2896,10 @@
       </c>
       <c r="B41" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>VA_ROAD_STRI23711</v>
+        <v>VA ROAD STRI23711</v>
       </c>
       <c r="C41" s="18" t="s">
-        <v>328</v>
+        <v>227</v>
       </c>
       <c r="D41" s="19">
         <v>23</v>
@@ -2914,7 +2914,7 @@
         <v>1</v>
       </c>
       <c r="I41" s="16" t="s">
-        <v>208</v>
+        <v>229</v>
       </c>
     </row>
     <row r="42" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -2923,10 +2923,10 @@
       </c>
       <c r="B42" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>VA_ROAD_STRI23721</v>
+        <v>VA ROAD STRI23721</v>
       </c>
       <c r="C42" s="18" t="s">
-        <v>328</v>
+        <v>227</v>
       </c>
       <c r="D42" s="19">
         <v>23</v>
@@ -2941,7 +2941,7 @@
         <v>1</v>
       </c>
       <c r="I42" s="18" t="s">
-        <v>208</v>
+        <v>229</v>
       </c>
     </row>
     <row r="43" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -2950,10 +2950,10 @@
       </c>
       <c r="B43" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>VA_ROAD_STRI23731</v>
+        <v>VA ROAD STRI23731</v>
       </c>
       <c r="C43" s="18" t="s">
-        <v>328</v>
+        <v>227</v>
       </c>
       <c r="D43" s="19">
         <v>23</v>
@@ -2968,7 +2968,7 @@
         <v>1</v>
       </c>
       <c r="I43" s="16" t="s">
-        <v>208</v>
+        <v>229</v>
       </c>
     </row>
     <row r="44" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -2977,10 +2977,10 @@
       </c>
       <c r="B44" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>VA_ROAD_STRI23401</v>
+        <v>VA ROAD STRI23401</v>
       </c>
       <c r="C44" s="18" t="s">
-        <v>328</v>
+        <v>227</v>
       </c>
       <c r="D44" s="19">
         <v>23</v>
@@ -2995,7 +2995,7 @@
         <v>1</v>
       </c>
       <c r="I44" s="18" t="s">
-        <v>209</v>
+        <v>230</v>
       </c>
     </row>
     <row r="45" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -3004,10 +3004,10 @@
       </c>
       <c r="B45" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>VA_ROAD_TW1000MEDA</v>
+        <v>VA ROAD TW1000MEDA</v>
       </c>
       <c r="C45" s="16" t="s">
-        <v>329</v>
+        <v>231</v>
       </c>
       <c r="D45" s="14">
         <v>1</v>
@@ -3022,10 +3022,10 @@
         <v>0</v>
       </c>
       <c r="H45" s="17" t="s">
-        <v>87</v>
+        <v>96</v>
       </c>
       <c r="I45" s="17" t="s">
-        <v>210</v>
+        <v>232</v>
       </c>
     </row>
     <row r="46" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -3034,10 +3034,10 @@
       </c>
       <c r="B46" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>VA_ROAD_TW1000MEDC</v>
+        <v>VA ROAD TW1000MEDC</v>
       </c>
       <c r="C46" s="16" t="s">
-        <v>329</v>
+        <v>231</v>
       </c>
       <c r="D46" s="14">
         <v>1</v>
@@ -3052,10 +3052,10 @@
         <v>0</v>
       </c>
       <c r="H46" s="17" t="s">
-        <v>88</v>
+        <v>97</v>
       </c>
       <c r="I46" s="17" t="s">
-        <v>210</v>
+        <v>232</v>
       </c>
     </row>
     <row r="47" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -3064,10 +3064,10 @@
       </c>
       <c r="B47" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>VA_ROAD_TW1000MEDD</v>
+        <v>VA ROAD TW1000MEDD</v>
       </c>
       <c r="C47" s="16" t="s">
-        <v>329</v>
+        <v>231</v>
       </c>
       <c r="D47" s="14">
         <v>1</v>
@@ -3082,10 +3082,10 @@
         <v>0</v>
       </c>
       <c r="H47" s="17" t="s">
-        <v>89</v>
+        <v>98</v>
       </c>
       <c r="I47" s="17" t="s">
-        <v>210</v>
+        <v>232</v>
       </c>
     </row>
     <row r="48" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -3094,10 +3094,10 @@
       </c>
       <c r="B48" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>VA_ROAD_TW1332RA</v>
+        <v>VA ROAD TW1332RA</v>
       </c>
       <c r="C48" s="18" t="s">
-        <v>329</v>
+        <v>231</v>
       </c>
       <c r="D48" s="19">
         <v>1</v>
@@ -3112,10 +3112,10 @@
         <v>2</v>
       </c>
       <c r="H48" s="18" t="s">
-        <v>122</v>
+        <v>131</v>
       </c>
       <c r="I48" s="18" t="s">
-        <v>211</v>
+        <v>233</v>
       </c>
     </row>
     <row r="49" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -3124,10 +3124,10 @@
       </c>
       <c r="B49" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>VA_ROAD_TW1332RC</v>
+        <v>VA ROAD TW1332RC</v>
       </c>
       <c r="C49" s="18" t="s">
-        <v>329</v>
+        <v>231</v>
       </c>
       <c r="D49" s="19">
         <v>1</v>
@@ -3142,10 +3142,10 @@
         <v>2</v>
       </c>
       <c r="H49" s="18" t="s">
-        <v>123</v>
+        <v>132</v>
       </c>
       <c r="I49" s="18" t="s">
-        <v>211</v>
+        <v>233</v>
       </c>
     </row>
     <row r="50" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -3154,10 +3154,10 @@
       </c>
       <c r="B50" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>VA_ROAD_UNPA3320ARD</v>
+        <v>VA ROAD UNPA3320ARD</v>
       </c>
       <c r="C50" s="18" t="s">
-        <v>330</v>
+        <v>234</v>
       </c>
       <c r="D50" s="14">
         <v>3</v>
@@ -3172,10 +3172,10 @@
         <v>0</v>
       </c>
       <c r="H50" s="16" t="s">
-        <v>24</v>
+        <v>33</v>
       </c>
       <c r="I50" s="16" t="s">
-        <v>203</v>
+        <v>222</v>
       </c>
     </row>
     <row r="51" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -3184,10 +3184,10 @@
       </c>
       <c r="B51" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>VA_ROAD_UNPA3320ATD</v>
+        <v>VA ROAD UNPA3320ATD</v>
       </c>
       <c r="C51" s="18" t="s">
-        <v>330</v>
+        <v>234</v>
       </c>
       <c r="D51" s="14">
         <v>3</v>
@@ -3202,10 +3202,10 @@
         <v>0</v>
       </c>
       <c r="H51" s="16" t="s">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="I51" s="16" t="s">
-        <v>203</v>
+        <v>222</v>
       </c>
     </row>
     <row r="52" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -3214,10 +3214,10 @@
       </c>
       <c r="B52" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>VA_ROAD_UNPA3320RDT</v>
+        <v>VA ROAD UNPA3320RDT</v>
       </c>
       <c r="C52" s="18" t="s">
-        <v>330</v>
+        <v>234</v>
       </c>
       <c r="D52" s="19">
         <v>3</v>
@@ -3232,10 +3232,10 @@
         <v>0</v>
       </c>
       <c r="H52" s="18" t="s">
-        <v>124</v>
+        <v>133</v>
       </c>
       <c r="I52" s="18" t="s">
-        <v>211</v>
+        <v>233</v>
       </c>
     </row>
     <row r="53" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -3244,10 +3244,10 @@
       </c>
       <c r="B53" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>VA_ROAD_UNPA3320SHDT</v>
+        <v>VA ROAD UNPA3320SHDT</v>
       </c>
       <c r="C53" s="18" t="s">
-        <v>330</v>
+        <v>234</v>
       </c>
       <c r="D53" s="19">
         <v>3</v>
@@ -3262,10 +3262,10 @@
         <v>0</v>
       </c>
       <c r="H53" s="18" t="s">
-        <v>133</v>
+        <v>142</v>
       </c>
       <c r="I53" s="18" t="s">
-        <v>204</v>
+        <v>223</v>
       </c>
     </row>
     <row r="54" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -3274,10 +3274,10 @@
       </c>
       <c r="B54" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>VA_SITE_BRUS40230BH</v>
+        <v>VA SITE BRUS40230BH</v>
       </c>
       <c r="C54" s="18" t="s">
-        <v>331</v>
+        <v>235</v>
       </c>
       <c r="D54" s="14">
         <v>40</v>
@@ -3292,10 +3292,10 @@
         <v>0</v>
       </c>
       <c r="H54" s="16" t="s">
-        <v>61</v>
+        <v>70</v>
       </c>
       <c r="I54" s="16" t="s">
-        <v>212</v>
+        <v>236</v>
       </c>
       <c r="J54" s="3"/>
     </row>
@@ -3305,10 +3305,10 @@
       </c>
       <c r="B55" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>VA_SITE_BRUS40230GRC</v>
+        <v>VA SITE BRUS40230GRC</v>
       </c>
       <c r="C55" s="18" t="s">
-        <v>331</v>
+        <v>235</v>
       </c>
       <c r="D55" s="14">
         <v>40</v>
@@ -3323,10 +3323,10 @@
         <v>0</v>
       </c>
       <c r="H55" s="16" t="s">
-        <v>62</v>
+        <v>71</v>
       </c>
       <c r="I55" s="16" t="s">
-        <v>212</v>
+        <v>236</v>
       </c>
       <c r="J55" s="3"/>
     </row>
@@ -3336,10 +3336,10 @@
       </c>
       <c r="B56" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>VA_SITE_BRUS40230H</v>
+        <v>VA SITE BRUS40230H</v>
       </c>
       <c r="C56" s="18" t="s">
-        <v>331</v>
+        <v>235</v>
       </c>
       <c r="D56" s="14">
         <v>40</v>
@@ -3354,10 +3354,10 @@
         <v>0</v>
       </c>
       <c r="H56" s="16" t="s">
-        <v>63</v>
+        <v>72</v>
       </c>
       <c r="I56" s="16" t="s">
-        <v>212</v>
+        <v>236</v>
       </c>
     </row>
     <row r="57" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -3366,10 +3366,10 @@
       </c>
       <c r="B57" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>VA_SITE_BRUS40SSHRUB</v>
+        <v>VA SITE BRUS40SSHRUB</v>
       </c>
       <c r="C57" s="18" t="s">
-        <v>331</v>
+        <v>235</v>
       </c>
       <c r="D57" s="19">
         <v>40</v>
@@ -3378,10 +3378,10 @@
       <c r="F57" s="19"/>
       <c r="G57" s="19"/>
       <c r="H57" s="18" t="s">
-        <v>65</v>
+        <v>74</v>
       </c>
       <c r="I57" s="16" t="s">
-        <v>213</v>
+        <v>237</v>
       </c>
     </row>
     <row r="58" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -3390,10 +3390,10 @@
       </c>
       <c r="B58" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>VA_SITE_BRUS40230AG</v>
+        <v>VA SITE BRUS40230AG</v>
       </c>
       <c r="C58" s="18" t="s">
-        <v>331</v>
+        <v>235</v>
       </c>
       <c r="D58" s="19">
         <v>40</v>
@@ -3408,10 +3408,10 @@
         <v>0</v>
       </c>
       <c r="H58" s="18" t="s">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="I58" s="18" t="s">
-        <v>214</v>
+        <v>238</v>
       </c>
     </row>
     <row r="59" spans="1:10" s="3" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -3420,10 +3420,10 @@
       </c>
       <c r="B59" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>VA_SITE_CLVT44021</v>
+        <v>VA SITE CLVT44021</v>
       </c>
       <c r="C59" s="18" t="s">
-        <v>332</v>
+        <v>239</v>
       </c>
       <c r="D59" s="19">
         <v>44</v>
@@ -3439,7 +3439,7 @@
       </c>
       <c r="H59" s="18"/>
       <c r="I59" s="18" t="s">
-        <v>215</v>
+        <v>240</v>
       </c>
       <c r="J59" s="2"/>
     </row>
@@ -3449,10 +3449,10 @@
       </c>
       <c r="B60" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>VA_SITE_CLVT14420CS</v>
+        <v>VA SITE CLVT14420CS</v>
       </c>
       <c r="C60" s="18" t="s">
-        <v>332</v>
+        <v>239</v>
       </c>
       <c r="D60" s="19">
         <v>14</v>
@@ -3467,10 +3467,10 @@
         <v>0</v>
       </c>
       <c r="H60" s="18" t="s">
-        <v>142</v>
+        <v>151</v>
       </c>
       <c r="I60" s="18" t="s">
-        <v>216</v>
+        <v>241</v>
       </c>
       <c r="J60" s="2"/>
     </row>
@@ -3480,10 +3480,10 @@
       </c>
       <c r="B61" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>VA_SITE_CLVT44CULVT</v>
+        <v>VA SITE CLVT44CULVT</v>
       </c>
       <c r="C61" s="18" t="s">
-        <v>332</v>
+        <v>239</v>
       </c>
       <c r="D61" s="19">
         <v>44</v>
@@ -3492,10 +3492,10 @@
       <c r="F61" s="19"/>
       <c r="G61" s="19"/>
       <c r="H61" s="18" t="s">
-        <v>143</v>
+        <v>152</v>
       </c>
       <c r="I61" s="18" t="s">
-        <v>217</v>
+        <v>242</v>
       </c>
     </row>
     <row r="62" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -3504,10 +3504,10 @@
       </c>
       <c r="B62" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>VA_SITE_CLVT44400</v>
+        <v>VA SITE CLVT44400</v>
       </c>
       <c r="C62" s="18" t="s">
-        <v>332</v>
+        <v>239</v>
       </c>
       <c r="D62" s="19">
         <v>44</v>
@@ -3522,7 +3522,7 @@
         <v>0</v>
       </c>
       <c r="I62" s="18" t="s">
-        <v>218</v>
+        <v>243</v>
       </c>
     </row>
     <row r="63" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -3531,10 +3531,10 @@
       </c>
       <c r="B63" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>VA_SITE_CONC14400AAC</v>
+        <v>VA SITE CONC14400AAC</v>
       </c>
       <c r="C63" s="18" t="s">
-        <v>333</v>
+        <v>244</v>
       </c>
       <c r="D63" s="19">
         <v>14</v>
@@ -3549,10 +3549,10 @@
         <v>0</v>
       </c>
       <c r="H63" s="18" t="s">
-        <v>26</v>
+        <v>35</v>
       </c>
       <c r="I63" s="18" t="s">
-        <v>203</v>
+        <v>222</v>
       </c>
     </row>
     <row r="64" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -3561,10 +3561,10 @@
       </c>
       <c r="B64" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>VA_SITE_CONC14400AEC</v>
+        <v>VA SITE CONC14400AEC</v>
       </c>
       <c r="C64" s="18" t="s">
-        <v>333</v>
+        <v>244</v>
       </c>
       <c r="D64" s="19">
         <v>14</v>
@@ -3579,10 +3579,10 @@
         <v>0</v>
       </c>
       <c r="H64" s="18" t="s">
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="I64" s="18" t="s">
-        <v>203</v>
+        <v>222</v>
       </c>
     </row>
     <row r="65" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -3591,10 +3591,10 @@
       </c>
       <c r="B65" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>VA_SITE_CONC14400AHC</v>
+        <v>VA SITE CONC14400AHC</v>
       </c>
       <c r="C65" s="18" t="s">
-        <v>333</v>
+        <v>244</v>
       </c>
       <c r="D65" s="19">
         <v>14</v>
@@ -3609,10 +3609,10 @@
         <v>0</v>
       </c>
       <c r="H65" s="18" t="s">
-        <v>28</v>
+        <v>37</v>
       </c>
       <c r="I65" s="18" t="s">
-        <v>203</v>
+        <v>222</v>
       </c>
     </row>
     <row r="66" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -3621,10 +3621,10 @@
       </c>
       <c r="B66" s="1" t="str">
         <f t="shared" ref="B66:B129" si="1">CONCATENATE(C66,D66,E66,F66,G66,H66)</f>
-        <v>VA_SITE_CONC14400APC</v>
+        <v>VA SITE CONC14400APC</v>
       </c>
       <c r="C66" s="18" t="s">
-        <v>333</v>
+        <v>244</v>
       </c>
       <c r="D66" s="19">
         <v>14</v>
@@ -3639,10 +3639,10 @@
         <v>0</v>
       </c>
       <c r="H66" s="18" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="I66" s="18" t="s">
-        <v>203</v>
+        <v>222</v>
       </c>
     </row>
     <row r="67" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -3651,10 +3651,10 @@
       </c>
       <c r="B67" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>VA_SITE_CONC14400ARC</v>
+        <v>VA SITE CONC14400ARC</v>
       </c>
       <c r="C67" s="18" t="s">
-        <v>333</v>
+        <v>244</v>
       </c>
       <c r="D67" s="19">
         <v>14</v>
@@ -3669,10 +3669,10 @@
         <v>0</v>
       </c>
       <c r="H67" s="18" t="s">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="I67" s="18" t="s">
-        <v>203</v>
+        <v>222</v>
       </c>
     </row>
     <row r="68" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -3681,10 +3681,10 @@
       </c>
       <c r="B68" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>VA_SITE_CONC14400ASC</v>
+        <v>VA SITE CONC14400ASC</v>
       </c>
       <c r="C68" s="18" t="s">
-        <v>333</v>
+        <v>244</v>
       </c>
       <c r="D68" s="19">
         <v>14</v>
@@ -3699,10 +3699,10 @@
         <v>0</v>
       </c>
       <c r="H68" s="18" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="I68" s="18" t="s">
-        <v>203</v>
+        <v>222</v>
       </c>
     </row>
     <row r="69" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -3711,10 +3711,10 @@
       </c>
       <c r="B69" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>VA_SITE_CONC14400ATC</v>
+        <v>VA SITE CONC14400ATC</v>
       </c>
       <c r="C69" s="18" t="s">
-        <v>333</v>
+        <v>244</v>
       </c>
       <c r="D69" s="19">
         <v>14</v>
@@ -3729,10 +3729,10 @@
         <v>0</v>
       </c>
       <c r="H69" s="18" t="s">
-        <v>32</v>
+        <v>41</v>
       </c>
       <c r="I69" s="18" t="s">
-        <v>203</v>
+        <v>222</v>
       </c>
     </row>
     <row r="70" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -3741,10 +3741,10 @@
       </c>
       <c r="B70" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>VA_SITE_CONC14400C</v>
+        <v>VA SITE CONC14400C</v>
       </c>
       <c r="C70" s="18" t="s">
-        <v>333</v>
+        <v>244</v>
       </c>
       <c r="D70" s="19">
         <v>14</v>
@@ -3759,10 +3759,10 @@
         <v>0</v>
       </c>
       <c r="H70" s="18" t="s">
-        <v>138</v>
+        <v>147</v>
       </c>
       <c r="I70" s="18" t="s">
-        <v>191</v>
+        <v>201</v>
       </c>
     </row>
     <row r="71" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -3771,10 +3771,10 @@
       </c>
       <c r="B71" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>VA_SITE_CONC14400POOL</v>
+        <v>VA SITE CONC14400POOL</v>
       </c>
       <c r="C71" s="18" t="s">
-        <v>333</v>
+        <v>244</v>
       </c>
       <c r="D71" s="19">
         <v>14</v>
@@ -3789,10 +3789,10 @@
         <v>0</v>
       </c>
       <c r="H71" s="18" t="s">
-        <v>154</v>
+        <v>163</v>
       </c>
       <c r="I71" s="18" t="s">
-        <v>219</v>
+        <v>245</v>
       </c>
     </row>
     <row r="72" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -3801,10 +3801,10 @@
       </c>
       <c r="B72" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>VA_SITE_DWAY6630DA</v>
+        <v>VA SITE DWAY6630DA</v>
       </c>
       <c r="C72" s="18" t="s">
-        <v>334</v>
+        <v>246</v>
       </c>
       <c r="D72" s="19">
         <v>6</v>
@@ -3819,10 +3819,10 @@
         <v>0</v>
       </c>
       <c r="H72" s="18" t="s">
-        <v>174</v>
+        <v>183</v>
       </c>
       <c r="I72" s="18" t="s">
-        <v>220</v>
+        <v>247</v>
       </c>
     </row>
     <row r="73" spans="1:10" s="7" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -3831,10 +3831,10 @@
       </c>
       <c r="B73" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>VA_SITE_DWAY6630DC</v>
+        <v>VA SITE DWAY6630DC</v>
       </c>
       <c r="C73" s="27" t="s">
-        <v>334</v>
+        <v>246</v>
       </c>
       <c r="D73" s="29">
         <v>6</v>
@@ -3849,10 +3849,10 @@
         <v>0</v>
       </c>
       <c r="H73" s="27" t="s">
-        <v>175</v>
+        <v>184</v>
       </c>
       <c r="I73" s="27" t="s">
-        <v>220</v>
+        <v>247</v>
       </c>
       <c r="J73" s="46"/>
     </row>
@@ -3862,10 +3862,10 @@
       </c>
       <c r="B74" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>VA_SITE_DWAY6630DDT</v>
+        <v>VA SITE DWAY6630DDT</v>
       </c>
       <c r="C74" s="18" t="s">
-        <v>334</v>
+        <v>246</v>
       </c>
       <c r="D74" s="19">
         <v>6</v>
@@ -3880,10 +3880,10 @@
         <v>0</v>
       </c>
       <c r="H74" s="18" t="s">
-        <v>176</v>
+        <v>185</v>
       </c>
       <c r="I74" s="18" t="s">
-        <v>220</v>
+        <v>247</v>
       </c>
     </row>
     <row r="75" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -3892,10 +3892,10 @@
       </c>
       <c r="B75" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>VA_SITE_FENC19600</v>
+        <v>VA SITE FENC19600</v>
       </c>
       <c r="C75" s="18" t="s">
-        <v>335</v>
+        <v>248</v>
       </c>
       <c r="D75" s="19">
         <v>19</v>
@@ -3910,7 +3910,7 @@
         <v>0</v>
       </c>
       <c r="I75" s="18" t="s">
-        <v>221</v>
+        <v>249</v>
       </c>
     </row>
     <row r="76" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -3919,10 +3919,10 @@
       </c>
       <c r="B76" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>VA_SITE_FENC19620</v>
+        <v>VA SITE FENC19620</v>
       </c>
       <c r="C76" s="18" t="s">
-        <v>335</v>
+        <v>248</v>
       </c>
       <c r="D76" s="19">
         <v>19</v>
@@ -3937,7 +3937,7 @@
         <v>0</v>
       </c>
       <c r="I76" s="18" t="s">
-        <v>221</v>
+        <v>249</v>
       </c>
     </row>
     <row r="77" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -3946,10 +3946,10 @@
       </c>
       <c r="B77" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>VA_SITE_FENC19000</v>
+        <v>VA SITE FENC19000</v>
       </c>
       <c r="C77" s="18" t="s">
-        <v>335</v>
+        <v>248</v>
       </c>
       <c r="D77" s="19">
         <v>19</v>
@@ -3964,7 +3964,7 @@
         <v>0</v>
       </c>
       <c r="I77" s="18" t="s">
-        <v>222</v>
+        <v>250</v>
       </c>
     </row>
     <row r="78" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -3973,10 +3973,10 @@
       </c>
       <c r="B78" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>VA_SITE_FLAG38FP</v>
+        <v>VA SITE FLAG38FP</v>
       </c>
       <c r="C78" s="18" t="s">
-        <v>336</v>
+        <v>251</v>
       </c>
       <c r="D78" s="28">
         <v>38</v>
@@ -3985,10 +3985,10 @@
       <c r="F78" s="28"/>
       <c r="G78" s="28"/>
       <c r="H78" s="18" t="s">
-        <v>68</v>
+        <v>77</v>
       </c>
       <c r="I78" s="18" t="s">
-        <v>223</v>
+        <v>252</v>
       </c>
     </row>
     <row r="79" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -3997,10 +3997,10 @@
       </c>
       <c r="B79" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>VA_SITE_FLAG38GP</v>
+        <v>VA SITE FLAG38GP</v>
       </c>
       <c r="C79" s="18" t="s">
-        <v>336</v>
+        <v>251</v>
       </c>
       <c r="D79" s="28">
         <v>38</v>
@@ -4009,10 +4009,10 @@
       <c r="F79" s="28"/>
       <c r="G79" s="28"/>
       <c r="H79" s="18" t="s">
-        <v>69</v>
+        <v>78</v>
       </c>
       <c r="I79" s="18" t="s">
-        <v>223</v>
+        <v>252</v>
       </c>
     </row>
     <row r="80" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -4021,10 +4021,10 @@
       </c>
       <c r="B80" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>VA_SITE_GOLF35200GOLF</v>
+        <v>VA SITE GOLF35200GOLF</v>
       </c>
       <c r="C80" s="18" t="s">
-        <v>337</v>
+        <v>253</v>
       </c>
       <c r="D80" s="19">
         <v>35</v>
@@ -4039,10 +4039,10 @@
         <v>0</v>
       </c>
       <c r="H80" s="18" t="s">
-        <v>70</v>
+        <v>79</v>
       </c>
       <c r="I80" s="18" t="s">
-        <v>224</v>
+        <v>254</v>
       </c>
     </row>
     <row r="81" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -4051,10 +4051,10 @@
       </c>
       <c r="B81" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>VA_SITE_GOLF35200ST</v>
+        <v>VA SITE GOLF35200ST</v>
       </c>
       <c r="C81" s="18" t="s">
-        <v>337</v>
+        <v>253</v>
       </c>
       <c r="D81" s="19">
         <v>35</v>
@@ -4069,10 +4069,10 @@
         <v>0</v>
       </c>
       <c r="H81" s="18" t="s">
-        <v>71</v>
+        <v>80</v>
       </c>
       <c r="I81" s="18" t="s">
-        <v>225</v>
+        <v>255</v>
       </c>
     </row>
     <row r="82" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -4081,10 +4081,10 @@
       </c>
       <c r="B82" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>VA_SITE_GOLF35200FW</v>
+        <v>VA SITE GOLF35200FW</v>
       </c>
       <c r="C82" s="18" t="s">
-        <v>337</v>
+        <v>253</v>
       </c>
       <c r="D82" s="19">
         <v>35</v>
@@ -4099,10 +4099,10 @@
         <v>0</v>
       </c>
       <c r="H82" s="18" t="s">
-        <v>72</v>
+        <v>81</v>
       </c>
       <c r="I82" s="18" t="s">
-        <v>226</v>
+        <v>256</v>
       </c>
     </row>
     <row r="83" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -4111,10 +4111,10 @@
       </c>
       <c r="B83" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>VA_SITE_GOLF35200GRN</v>
+        <v>VA SITE GOLF35200GRN</v>
       </c>
       <c r="C83" s="18" t="s">
-        <v>337</v>
+        <v>253</v>
       </c>
       <c r="D83" s="19">
         <v>35</v>
@@ -4129,10 +4129,10 @@
         <v>0</v>
       </c>
       <c r="H83" s="18" t="s">
-        <v>73</v>
+        <v>82</v>
       </c>
       <c r="I83" s="18" t="s">
-        <v>227</v>
+        <v>257</v>
       </c>
     </row>
     <row r="84" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -4141,10 +4141,10 @@
       </c>
       <c r="B84" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>VA_SITE_GOLF35200TEE</v>
+        <v>VA SITE GOLF35200TEE</v>
       </c>
       <c r="C84" s="18" t="s">
-        <v>337</v>
+        <v>253</v>
       </c>
       <c r="D84" s="19">
         <v>35</v>
@@ -4159,10 +4159,10 @@
         <v>0</v>
       </c>
       <c r="H84" s="18" t="s">
-        <v>74</v>
+        <v>83</v>
       </c>
       <c r="I84" s="18" t="s">
-        <v>228</v>
+        <v>258</v>
       </c>
     </row>
     <row r="85" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -4171,10 +4171,10 @@
       </c>
       <c r="B85" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>VA_SITE_GOLF35200WH</v>
+        <v>VA SITE GOLF35200WH</v>
       </c>
       <c r="C85" s="18" t="s">
-        <v>337</v>
+        <v>253</v>
       </c>
       <c r="D85" s="19">
         <v>35</v>
@@ -4189,10 +4189,10 @@
         <v>0</v>
       </c>
       <c r="H85" s="18" t="s">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="I85" s="18" t="s">
-        <v>229</v>
+        <v>259</v>
       </c>
     </row>
     <row r="86" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -4201,10 +4201,10 @@
       </c>
       <c r="B86" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>VA_SITE_GUYW33GUY</v>
+        <v>VA SITE GUYW33GUY</v>
       </c>
       <c r="C86" s="18" t="s">
-        <v>338</v>
+        <v>260</v>
       </c>
       <c r="D86" s="28">
         <v>33</v>
@@ -4213,10 +4213,10 @@
       <c r="F86" s="28"/>
       <c r="G86" s="28"/>
       <c r="H86" s="18" t="s">
-        <v>168</v>
+        <v>177</v>
       </c>
       <c r="I86" s="18" t="s">
-        <v>230</v>
+        <v>261</v>
       </c>
     </row>
     <row r="87" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -4225,10 +4225,10 @@
       </c>
       <c r="B87" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>VA_SITE_LV5656710-2</v>
+        <v>VA SITE LV5656710-2</v>
       </c>
       <c r="C87" s="16" t="s">
-        <v>339</v>
+        <v>262</v>
       </c>
       <c r="D87" s="19">
         <v>56</v>
@@ -4243,7 +4243,7 @@
         <v>4</v>
       </c>
       <c r="I87" s="18" t="s">
-        <v>231</v>
+        <v>263</v>
       </c>
     </row>
     <row r="88" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -4252,10 +4252,10 @@
       </c>
       <c r="B88" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>VA_SITE_LV5656720-2</v>
+        <v>VA SITE LV5656720-2</v>
       </c>
       <c r="C88" s="16" t="s">
-        <v>339</v>
+        <v>262</v>
       </c>
       <c r="D88" s="19">
         <v>56</v>
@@ -4270,7 +4270,7 @@
         <v>4</v>
       </c>
       <c r="I88" s="18" t="s">
-        <v>231</v>
+        <v>263</v>
       </c>
     </row>
     <row r="89" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -4279,10 +4279,10 @@
       </c>
       <c r="B89" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>VA_SITE_LV5656701</v>
+        <v>VA SITE LV5656701</v>
       </c>
       <c r="C89" s="16" t="s">
-        <v>339</v>
+        <v>262</v>
       </c>
       <c r="D89" s="19">
         <v>56</v>
@@ -4297,7 +4297,7 @@
         <v>1</v>
       </c>
       <c r="I89" s="18" t="s">
-        <v>232</v>
+        <v>264</v>
       </c>
     </row>
     <row r="90" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -4306,10 +4306,10 @@
       </c>
       <c r="B90" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>VA_SITE_MISC16300AT</v>
+        <v>VA SITE MISC16300AT</v>
       </c>
       <c r="C90" s="30" t="s">
-        <v>340</v>
+        <v>265</v>
       </c>
       <c r="D90" s="31">
         <v>16</v>
@@ -4324,10 +4324,10 @@
         <v>0</v>
       </c>
       <c r="H90" s="30" t="s">
-        <v>33</v>
+        <v>42</v>
       </c>
       <c r="I90" s="30" t="s">
-        <v>233</v>
+        <v>266</v>
       </c>
     </row>
     <row r="91" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -4336,10 +4336,10 @@
       </c>
       <c r="B91" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>VA_SITE_MISC16500BL</v>
+        <v>VA SITE MISC16500BL</v>
       </c>
       <c r="C91" s="18" t="s">
-        <v>340</v>
+        <v>265</v>
       </c>
       <c r="D91" s="19">
         <v>16</v>
@@ -4354,10 +4354,10 @@
         <v>0</v>
       </c>
       <c r="H91" s="18" t="s">
-        <v>45</v>
+        <v>54</v>
       </c>
       <c r="I91" s="18" t="s">
-        <v>234</v>
+        <v>267</v>
       </c>
     </row>
     <row r="92" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -4366,10 +4366,10 @@
       </c>
       <c r="B92" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>VA_SITE_MISC16500BOAT RAMP</v>
+        <v>VA SITE MISC16500BOAT RAMP</v>
       </c>
       <c r="C92" s="18" t="s">
-        <v>340</v>
+        <v>265</v>
       </c>
       <c r="D92" s="19">
         <v>16</v>
@@ -4384,10 +4384,10 @@
         <v>0</v>
       </c>
       <c r="H92" s="16" t="s">
-        <v>235</v>
+        <v>268</v>
       </c>
       <c r="I92" s="16" t="s">
-        <v>236</v>
+        <v>269</v>
       </c>
     </row>
     <row r="93" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -4396,10 +4396,10 @@
       </c>
       <c r="B93" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>VA_SITE_MISC16500DOCK</v>
+        <v>VA SITE MISC16500DOCK</v>
       </c>
       <c r="C93" s="18" t="s">
-        <v>340</v>
+        <v>265</v>
       </c>
       <c r="D93" s="19">
         <v>16</v>
@@ -4414,10 +4414,10 @@
         <v>0</v>
       </c>
       <c r="H93" s="18" t="s">
-        <v>46</v>
+        <v>55</v>
       </c>
       <c r="I93" s="16" t="s">
-        <v>237</v>
+        <v>270</v>
       </c>
     </row>
     <row r="94" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -4426,10 +4426,10 @@
       </c>
       <c r="B94" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>VA_SITE_MISC16500BORROW AREA</v>
+        <v>VA SITE MISC16500BORROW AREA</v>
       </c>
       <c r="C94" s="18" t="s">
-        <v>340</v>
+        <v>265</v>
       </c>
       <c r="D94" s="19">
         <v>16</v>
@@ -4444,10 +4444,10 @@
         <v>0</v>
       </c>
       <c r="H94" s="32" t="s">
-        <v>238</v>
+        <v>271</v>
       </c>
       <c r="I94" s="18" t="s">
-        <v>239</v>
+        <v>272</v>
       </c>
     </row>
     <row r="95" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -4456,10 +4456,10 @@
       </c>
       <c r="B95" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>VA_SITE_MISC16500BORROW PIT</v>
+        <v>VA SITE MISC16500BORROW PIT</v>
       </c>
       <c r="C95" s="18" t="s">
-        <v>340</v>
+        <v>265</v>
       </c>
       <c r="D95" s="19">
         <v>16</v>
@@ -4474,10 +4474,10 @@
         <v>0</v>
       </c>
       <c r="H95" s="32" t="s">
-        <v>240</v>
+        <v>273</v>
       </c>
       <c r="I95" s="18" t="s">
-        <v>241</v>
+        <v>274</v>
       </c>
     </row>
     <row r="96" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -4486,10 +4486,10 @@
       </c>
       <c r="B96" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>VA_SITE_MISC16500CANAL</v>
+        <v>VA SITE MISC16500CANAL</v>
       </c>
       <c r="C96" s="18" t="s">
-        <v>340</v>
+        <v>265</v>
       </c>
       <c r="D96" s="19">
         <v>16</v>
@@ -4504,10 +4504,10 @@
         <v>0</v>
       </c>
       <c r="H96" s="18" t="s">
-        <v>48</v>
+        <v>57</v>
       </c>
       <c r="I96" s="16" t="s">
-        <v>242</v>
+        <v>275</v>
       </c>
     </row>
     <row r="97" spans="1:9" s="13" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -4516,10 +4516,10 @@
       </c>
       <c r="B97" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>VA_SITE_MISC16500ANTENNA</v>
+        <v>VA SITE MISC16500ANTENNA</v>
       </c>
       <c r="C97" s="18" t="s">
-        <v>340</v>
+        <v>265</v>
       </c>
       <c r="D97" s="19">
         <v>16</v>
@@ -4537,7 +4537,7 @@
         <v>0</v>
       </c>
       <c r="I97" s="16" t="s">
-        <v>243</v>
+        <v>276</v>
       </c>
     </row>
     <row r="98" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -4546,10 +4546,10 @@
       </c>
       <c r="B98" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>VA_SITE_MISC16500DISH</v>
+        <v>VA SITE MISC16500DISH</v>
       </c>
       <c r="C98" s="18" t="s">
-        <v>340</v>
+        <v>265</v>
       </c>
       <c r="D98" s="19">
         <v>16</v>
@@ -4564,10 +4564,10 @@
         <v>0</v>
       </c>
       <c r="H98" s="18" t="s">
-        <v>52</v>
+        <v>61</v>
       </c>
       <c r="I98" s="16" t="s">
-        <v>243</v>
+        <v>276</v>
       </c>
     </row>
     <row r="99" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -4576,10 +4576,10 @@
       </c>
       <c r="B99" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>VA_SITE_MISC16500RADIO TOWER</v>
+        <v>VA SITE MISC16500RADIO TOWER</v>
       </c>
       <c r="C99" s="18" t="s">
-        <v>340</v>
+        <v>265</v>
       </c>
       <c r="D99" s="19">
         <v>16</v>
@@ -4594,10 +4594,10 @@
         <v>0</v>
       </c>
       <c r="H99" s="32" t="s">
-        <v>244</v>
+        <v>277</v>
       </c>
       <c r="I99" s="16" t="s">
-        <v>243</v>
+        <v>276</v>
       </c>
     </row>
     <row r="100" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -4606,10 +4606,10 @@
       </c>
       <c r="B100" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>VA_SITE_MISC16500UC</v>
+        <v>VA SITE MISC16500UC</v>
       </c>
       <c r="C100" s="18" t="s">
-        <v>340</v>
+        <v>265</v>
       </c>
       <c r="D100" s="28">
         <v>16</v>
@@ -4624,10 +4624,10 @@
         <v>0</v>
       </c>
       <c r="H100" s="18" t="s">
-        <v>53</v>
+        <v>62</v>
       </c>
       <c r="I100" s="18" t="s">
-        <v>245</v>
+        <v>278</v>
       </c>
     </row>
     <row r="101" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -4636,10 +4636,10 @@
       </c>
       <c r="B101" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>VA_SITE_MISC16500CONVEYOR</v>
+        <v>VA SITE MISC16500CONVEYOR</v>
       </c>
       <c r="C101" s="18" t="s">
-        <v>340</v>
+        <v>265</v>
       </c>
       <c r="D101" s="19">
         <v>16</v>
@@ -4654,10 +4654,10 @@
         <v>0</v>
       </c>
       <c r="H101" s="18" t="s">
-        <v>55</v>
+        <v>64</v>
       </c>
       <c r="I101" s="18" t="s">
-        <v>246</v>
+        <v>279</v>
       </c>
     </row>
     <row r="102" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -4666,10 +4666,10 @@
       </c>
       <c r="B102" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>VA_SITE_MISC16500CRANE</v>
+        <v>VA SITE MISC16500CRANE</v>
       </c>
       <c r="C102" s="18" t="s">
-        <v>340</v>
+        <v>265</v>
       </c>
       <c r="D102" s="19">
         <v>16</v>
@@ -4684,10 +4684,10 @@
         <v>0</v>
       </c>
       <c r="H102" s="18" t="s">
-        <v>56</v>
+        <v>65</v>
       </c>
       <c r="I102" s="18" t="s">
-        <v>247</v>
+        <v>280</v>
       </c>
     </row>
     <row r="103" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -4696,10 +4696,10 @@
       </c>
       <c r="B103" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>VA_SITE_MISC16500DRYDOCK</v>
+        <v>VA SITE MISC16500DRYDOCK</v>
       </c>
       <c r="C103" s="18" t="s">
-        <v>340</v>
+        <v>265</v>
       </c>
       <c r="D103" s="19">
         <v>16</v>
@@ -4714,10 +4714,10 @@
         <v>0</v>
       </c>
       <c r="H103" s="18" t="s">
-        <v>58</v>
+        <v>67</v>
       </c>
       <c r="I103" s="16" t="s">
-        <v>248</v>
+        <v>281</v>
       </c>
     </row>
     <row r="104" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -4726,10 +4726,10 @@
       </c>
       <c r="B104" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>VA_SITE_MISC16500SUBS</v>
+        <v>VA SITE MISC16500SUBS</v>
       </c>
       <c r="C104" s="18" t="s">
-        <v>340</v>
+        <v>265</v>
       </c>
       <c r="D104" s="19">
         <v>16</v>
@@ -4744,10 +4744,10 @@
         <v>0</v>
       </c>
       <c r="H104" s="18" t="s">
-        <v>59</v>
+        <v>68</v>
       </c>
       <c r="I104" s="18" t="s">
-        <v>249</v>
+        <v>282</v>
       </c>
     </row>
     <row r="105" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -4756,10 +4756,10 @@
       </c>
       <c r="B105" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>VA_SITE_MISC16500MONUMENT</v>
+        <v>VA SITE MISC16500MONUMENT</v>
       </c>
       <c r="C105" s="18" t="s">
-        <v>340</v>
+        <v>265</v>
       </c>
       <c r="D105" s="19">
         <v>16</v>
@@ -4774,10 +4774,10 @@
         <v>0</v>
       </c>
       <c r="H105" s="18" t="s">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="I105" s="18" t="s">
-        <v>250</v>
+        <v>283</v>
       </c>
     </row>
     <row r="106" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -4786,10 +4786,10 @@
       </c>
       <c r="B106" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>VA_SITE_MISC16500JETTY</v>
+        <v>VA SITE MISC16500JETTY</v>
       </c>
       <c r="C106" s="18" t="s">
-        <v>340</v>
+        <v>265</v>
       </c>
       <c r="D106" s="19">
         <v>16</v>
@@ -4804,10 +4804,10 @@
         <v>0</v>
       </c>
       <c r="H106" s="18" t="s">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="I106" s="18" t="s">
-        <v>251</v>
+        <v>284</v>
       </c>
     </row>
     <row r="107" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -4816,10 +4816,10 @@
       </c>
       <c r="B107" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>VA_SITE_MISC16500GVL</v>
+        <v>VA SITE MISC16500GVL</v>
       </c>
       <c r="C107" s="18" t="s">
-        <v>340</v>
+        <v>265</v>
       </c>
       <c r="D107" s="19">
         <v>16</v>
@@ -4834,10 +4834,10 @@
         <v>0</v>
       </c>
       <c r="H107" s="18" t="s">
-        <v>82</v>
+        <v>91</v>
       </c>
       <c r="I107" s="18" t="s">
-        <v>214</v>
+        <v>238</v>
       </c>
     </row>
     <row r="108" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -4846,10 +4846,10 @@
       </c>
       <c r="B108" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>VA_SITE_MISC16500LS</v>
+        <v>VA SITE MISC16500LS</v>
       </c>
       <c r="C108" s="18" t="s">
-        <v>340</v>
+        <v>265</v>
       </c>
       <c r="D108" s="19">
         <v>16</v>
@@ -4864,10 +4864,10 @@
         <v>0</v>
       </c>
       <c r="H108" s="18" t="s">
-        <v>83</v>
+        <v>92</v>
       </c>
       <c r="I108" s="18" t="s">
-        <v>214</v>
+        <v>238</v>
       </c>
     </row>
     <row r="109" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -4876,10 +4876,10 @@
       </c>
       <c r="B109" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>VA_SITE_MISC16500NG</v>
+        <v>VA SITE MISC16500NG</v>
       </c>
       <c r="C109" s="18" t="s">
-        <v>340</v>
+        <v>265</v>
       </c>
       <c r="D109" s="19">
         <v>16</v>
@@ -4894,10 +4894,10 @@
         <v>0</v>
       </c>
       <c r="H109" s="18" t="s">
-        <v>84</v>
+        <v>93</v>
       </c>
       <c r="I109" s="18" t="s">
-        <v>214</v>
+        <v>238</v>
       </c>
     </row>
     <row r="110" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -4906,10 +4906,10 @@
       </c>
       <c r="B110" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>VA_SITE_MISC16500PTGRS</v>
+        <v>VA SITE MISC16500PTGRS</v>
       </c>
       <c r="C110" s="18" t="s">
-        <v>340</v>
+        <v>265</v>
       </c>
       <c r="D110" s="19">
         <v>16</v>
@@ -4924,10 +4924,10 @@
         <v>0</v>
       </c>
       <c r="H110" s="18" t="s">
-        <v>85</v>
+        <v>94</v>
       </c>
       <c r="I110" s="18" t="s">
-        <v>214</v>
+        <v>238</v>
       </c>
     </row>
     <row r="111" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -4936,10 +4936,10 @@
       </c>
       <c r="B111" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>VA_SITE_MISC16500RANGE</v>
+        <v>VA SITE MISC16500RANGE</v>
       </c>
       <c r="C111" s="18" t="s">
-        <v>340</v>
+        <v>265</v>
       </c>
       <c r="D111" s="28">
         <v>16</v>
@@ -4954,10 +4954,10 @@
         <v>0</v>
       </c>
       <c r="H111" s="18" t="s">
-        <v>90</v>
+        <v>99</v>
       </c>
       <c r="I111" s="18" t="s">
-        <v>252</v>
+        <v>285</v>
       </c>
     </row>
     <row r="112" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -4966,10 +4966,10 @@
       </c>
       <c r="B112" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>VA_SITE_MISC16500BW</v>
+        <v>VA SITE MISC16500BW</v>
       </c>
       <c r="C112" s="18" t="s">
-        <v>340</v>
+        <v>265</v>
       </c>
       <c r="D112" s="19">
         <v>16</v>
@@ -4984,10 +4984,10 @@
         <v>0</v>
       </c>
       <c r="H112" s="18" t="s">
-        <v>91</v>
+        <v>100</v>
       </c>
       <c r="I112" s="18" t="s">
-        <v>253</v>
+        <v>286</v>
       </c>
     </row>
     <row r="113" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -4996,10 +4996,10 @@
       </c>
       <c r="B113" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>VA_SITE_MISC16500EW</v>
+        <v>VA SITE MISC16500EW</v>
       </c>
       <c r="C113" s="18" t="s">
-        <v>340</v>
+        <v>265</v>
       </c>
       <c r="D113" s="28">
         <v>16</v>
@@ -5014,10 +5014,10 @@
         <v>0</v>
       </c>
       <c r="H113" s="18" t="s">
-        <v>92</v>
+        <v>101</v>
       </c>
       <c r="I113" s="18" t="s">
-        <v>253</v>
+        <v>286</v>
       </c>
     </row>
     <row r="114" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -5026,10 +5026,10 @@
       </c>
       <c r="B114" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>VA_SITE_MISC16500LDK</v>
+        <v>VA SITE MISC16500LDK</v>
       </c>
       <c r="C114" s="18" t="s">
-        <v>340</v>
+        <v>265</v>
       </c>
       <c r="D114" s="19">
         <v>16</v>
@@ -5044,10 +5044,10 @@
         <v>0</v>
       </c>
       <c r="H114" s="18" t="s">
-        <v>93</v>
+        <v>102</v>
       </c>
       <c r="I114" s="18" t="s">
-        <v>253</v>
+        <v>286</v>
       </c>
     </row>
     <row r="115" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -5056,10 +5056,10 @@
       </c>
       <c r="B115" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>VA_SITE_MISC16500PILE</v>
+        <v>VA SITE MISC16500PILE</v>
       </c>
       <c r="C115" s="18" t="s">
-        <v>340</v>
+        <v>265</v>
       </c>
       <c r="D115" s="19">
         <v>16</v>
@@ -5074,10 +5074,10 @@
         <v>0</v>
       </c>
       <c r="H115" s="18" t="s">
-        <v>94</v>
+        <v>103</v>
       </c>
       <c r="I115" s="18" t="s">
-        <v>253</v>
+        <v>286</v>
       </c>
     </row>
     <row r="116" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -5086,10 +5086,10 @@
       </c>
       <c r="B116" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>VA_SITE_MISC16500PLANTER</v>
+        <v>VA SITE MISC16500PLANTER</v>
       </c>
       <c r="C116" s="18" t="s">
-        <v>340</v>
+        <v>265</v>
       </c>
       <c r="D116" s="19">
         <v>16</v>
@@ -5104,10 +5104,10 @@
         <v>0</v>
       </c>
       <c r="H116" s="18" t="s">
-        <v>95</v>
+        <v>104</v>
       </c>
       <c r="I116" s="18" t="s">
-        <v>253</v>
+        <v>286</v>
       </c>
     </row>
     <row r="117" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -5116,10 +5116,10 @@
       </c>
       <c r="B117" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>VA_SITE_MISC16500RAMP</v>
+        <v>VA SITE MISC16500RAMP</v>
       </c>
       <c r="C117" s="18" t="s">
-        <v>340</v>
+        <v>265</v>
       </c>
       <c r="D117" s="19">
         <v>16</v>
@@ -5134,10 +5134,10 @@
         <v>0</v>
       </c>
       <c r="H117" s="18" t="s">
-        <v>96</v>
+        <v>105</v>
       </c>
       <c r="I117" s="18" t="s">
-        <v>253</v>
+        <v>286</v>
       </c>
     </row>
     <row r="118" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -5146,10 +5146,10 @@
       </c>
       <c r="B118" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>VA_SITE_MISC16500YD</v>
+        <v>VA SITE MISC16500YD</v>
       </c>
       <c r="C118" s="18" t="s">
-        <v>340</v>
+        <v>265</v>
       </c>
       <c r="D118" s="19">
         <v>16</v>
@@ -5164,10 +5164,10 @@
         <v>0</v>
       </c>
       <c r="H118" s="18" t="s">
-        <v>97</v>
+        <v>106</v>
       </c>
       <c r="I118" s="18" t="s">
-        <v>253</v>
+        <v>286</v>
       </c>
     </row>
     <row r="119" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -5176,10 +5176,10 @@
       </c>
       <c r="B119" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>VA_SITE_MISC16500PIER</v>
+        <v>VA SITE MISC16500PIER</v>
       </c>
       <c r="C119" s="18" t="s">
-        <v>340</v>
+        <v>265</v>
       </c>
       <c r="D119" s="19">
         <v>16</v>
@@ -5194,10 +5194,10 @@
         <v>0</v>
       </c>
       <c r="H119" s="18" t="s">
-        <v>103</v>
+        <v>112</v>
       </c>
       <c r="I119" s="18" t="s">
-        <v>254</v>
+        <v>287</v>
       </c>
     </row>
     <row r="120" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -5206,10 +5206,10 @@
       </c>
       <c r="B120" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>VA_SITE_MISC16500SEAW</v>
+        <v>VA SITE MISC16500SEAW</v>
       </c>
       <c r="C120" s="18" t="s">
-        <v>340</v>
+        <v>265</v>
       </c>
       <c r="D120" s="19">
         <v>16</v>
@@ -5224,10 +5224,10 @@
         <v>0</v>
       </c>
       <c r="H120" s="18" t="s">
-        <v>104</v>
+        <v>113</v>
       </c>
       <c r="I120" s="27" t="s">
-        <v>254</v>
+        <v>287</v>
       </c>
     </row>
     <row r="121" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -5236,10 +5236,10 @@
       </c>
       <c r="B121" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>VA_SITE_MISC16500WHARF</v>
+        <v>VA SITE MISC16500WHARF</v>
       </c>
       <c r="C121" s="18" t="s">
-        <v>340</v>
+        <v>265</v>
       </c>
       <c r="D121" s="19">
         <v>16</v>
@@ -5254,10 +5254,10 @@
         <v>0</v>
       </c>
       <c r="H121" s="18" t="s">
-        <v>105</v>
+        <v>114</v>
       </c>
       <c r="I121" s="18" t="s">
-        <v>254</v>
+        <v>287</v>
       </c>
     </row>
     <row r="122" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -5266,10 +5266,10 @@
       </c>
       <c r="B122" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>VA_SITE_MISC16WS</v>
+        <v>VA SITE MISC16WS</v>
       </c>
       <c r="C122" s="18" t="s">
-        <v>340</v>
+        <v>265</v>
       </c>
       <c r="D122" s="19">
         <v>16</v>
@@ -5278,10 +5278,10 @@
       <c r="F122" s="19"/>
       <c r="G122" s="19"/>
       <c r="H122" s="18" t="s">
-        <v>106</v>
+        <v>115</v>
       </c>
       <c r="I122" s="18" t="s">
-        <v>255</v>
+        <v>288</v>
       </c>
     </row>
     <row r="123" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -5290,10 +5290,10 @@
       </c>
       <c r="B123" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>VA_SITE_MISC16500UA</v>
+        <v>VA SITE MISC16500UA</v>
       </c>
       <c r="C123" s="18" t="s">
-        <v>340</v>
+        <v>265</v>
       </c>
       <c r="D123" s="19">
         <v>16</v>
@@ -5308,10 +5308,10 @@
         <v>0</v>
       </c>
       <c r="H123" s="18" t="s">
-        <v>108</v>
+        <v>117</v>
       </c>
       <c r="I123" s="18" t="s">
-        <v>197</v>
+        <v>211</v>
       </c>
     </row>
     <row r="124" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -5320,10 +5320,10 @@
       </c>
       <c r="B124" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>VA_SITE_MISC16500STORAGE</v>
+        <v>VA SITE MISC16500STORAGE</v>
       </c>
       <c r="C124" s="18" t="s">
-        <v>340</v>
+        <v>265</v>
       </c>
       <c r="D124" s="19">
         <v>16</v>
@@ -5338,10 +5338,10 @@
         <v>0</v>
       </c>
       <c r="H124" s="18" t="s">
-        <v>109</v>
+        <v>118</v>
       </c>
       <c r="I124" s="18" t="s">
-        <v>256</v>
+        <v>289</v>
       </c>
     </row>
     <row r="125" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -5350,10 +5350,10 @@
       </c>
       <c r="B125" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>VA_SITE_MISC16500PICNIC</v>
+        <v>VA SITE MISC16500PICNIC</v>
       </c>
       <c r="C125" s="18" t="s">
-        <v>340</v>
+        <v>265</v>
       </c>
       <c r="D125" s="19">
         <v>16</v>
@@ -5368,10 +5368,10 @@
         <v>0</v>
       </c>
       <c r="H125" s="18" t="s">
-        <v>118</v>
+        <v>127</v>
       </c>
       <c r="I125" s="18" t="s">
-        <v>257</v>
+        <v>290</v>
       </c>
     </row>
     <row r="126" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -5380,10 +5380,10 @@
       </c>
       <c r="B126" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>VA_SITE_MISC16500</v>
+        <v>VA SITE MISC16500</v>
       </c>
       <c r="C126" s="18" t="s">
-        <v>340</v>
+        <v>265</v>
       </c>
       <c r="D126" s="19">
         <v>16</v>
@@ -5398,7 +5398,7 @@
         <v>0</v>
       </c>
       <c r="I126" s="18" t="s">
-        <v>258</v>
+        <v>291</v>
       </c>
     </row>
     <row r="127" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -5407,10 +5407,10 @@
       </c>
       <c r="B127" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>VA_SITE_MISC16500RADAR</v>
+        <v>VA SITE MISC16500RADAR</v>
       </c>
       <c r="C127" s="18" t="s">
-        <v>340</v>
+        <v>265</v>
       </c>
       <c r="D127" s="19">
         <v>16</v>
@@ -5428,7 +5428,7 @@
         <v>1</v>
       </c>
       <c r="I127" s="18" t="s">
-        <v>259</v>
+        <v>292</v>
       </c>
     </row>
     <row r="128" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -5437,10 +5437,10 @@
       </c>
       <c r="B128" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>VA_SITE_MISC16500BEACH</v>
+        <v>VA SITE MISC16500BEACH</v>
       </c>
       <c r="C128" s="18" t="s">
-        <v>340</v>
+        <v>265</v>
       </c>
       <c r="D128" s="19">
         <v>16</v>
@@ -5455,10 +5455,10 @@
         <v>0</v>
       </c>
       <c r="H128" s="18" t="s">
-        <v>120</v>
+        <v>129</v>
       </c>
       <c r="I128" s="18" t="s">
-        <v>260</v>
+        <v>293</v>
       </c>
     </row>
     <row r="129" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -5467,10 +5467,10 @@
       </c>
       <c r="B129" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>VA_SITE_MISC16500STACK</v>
+        <v>VA SITE MISC16500STACK</v>
       </c>
       <c r="C129" s="18" t="s">
-        <v>340</v>
+        <v>265</v>
       </c>
       <c r="D129" s="14">
         <v>16</v>
@@ -5485,10 +5485,10 @@
         <v>0</v>
       </c>
       <c r="H129" s="16" t="s">
-        <v>139</v>
+        <v>148</v>
       </c>
       <c r="I129" s="16" t="s">
-        <v>261</v>
+        <v>294</v>
       </c>
     </row>
     <row r="130" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -5497,10 +5497,10 @@
       </c>
       <c r="B130" s="1" t="str">
         <f t="shared" ref="B130:B193" si="2">CONCATENATE(C130,D130,E130,F130,G130,H130)</f>
-        <v>VA_SITE_MISC16500LF</v>
+        <v>VA SITE MISC16500LF</v>
       </c>
       <c r="C130" s="18" t="s">
-        <v>340</v>
+        <v>265</v>
       </c>
       <c r="D130" s="19">
         <v>16</v>
@@ -5515,10 +5515,10 @@
         <v>0</v>
       </c>
       <c r="H130" s="18" t="s">
-        <v>140</v>
+        <v>149</v>
       </c>
       <c r="I130" s="18" t="s">
-        <v>262</v>
+        <v>295</v>
       </c>
     </row>
     <row r="131" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -5527,10 +5527,10 @@
       </c>
       <c r="B131" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>VA_SITE_MISC16500SPILL CONT</v>
+        <v>VA SITE MISC16500SPILL CONT</v>
       </c>
       <c r="C131" s="18" t="s">
-        <v>340</v>
+        <v>265</v>
       </c>
       <c r="D131" s="19">
         <v>16</v>
@@ -5545,10 +5545,10 @@
         <v>0</v>
       </c>
       <c r="H131" s="18" t="s">
-        <v>263</v>
+        <v>296</v>
       </c>
       <c r="I131" s="18" t="s">
-        <v>264</v>
+        <v>297</v>
       </c>
     </row>
     <row r="132" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -5557,10 +5557,10 @@
       </c>
       <c r="B132" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>VA_SITE_MISC16500TRAINING</v>
+        <v>VA SITE MISC16500TRAINING</v>
       </c>
       <c r="C132" s="18" t="s">
-        <v>340</v>
+        <v>265</v>
       </c>
       <c r="D132" s="28">
         <v>16</v>
@@ -5575,10 +5575,10 @@
         <v>0</v>
       </c>
       <c r="H132" s="18" t="s">
-        <v>157</v>
+        <v>166</v>
       </c>
       <c r="I132" s="18" t="s">
-        <v>265</v>
+        <v>298</v>
       </c>
     </row>
     <row r="133" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -5587,10 +5587,10 @@
       </c>
       <c r="B133" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>VA_SITE_MISC16500TUNNEL</v>
+        <v>VA SITE MISC16500TUNNEL</v>
       </c>
       <c r="C133" s="18" t="s">
-        <v>340</v>
+        <v>265</v>
       </c>
       <c r="D133" s="19">
         <v>16</v>
@@ -5605,10 +5605,10 @@
         <v>0</v>
       </c>
       <c r="H133" s="18" t="s">
-        <v>158</v>
+        <v>167</v>
       </c>
       <c r="I133" s="16" t="s">
-        <v>266</v>
+        <v>299</v>
       </c>
     </row>
     <row r="134" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -5617,10 +5617,10 @@
       </c>
       <c r="B134" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>VA_SITE_MISC16500U</v>
+        <v>VA SITE MISC16500U</v>
       </c>
       <c r="C134" s="18" t="s">
-        <v>340</v>
+        <v>265</v>
       </c>
       <c r="D134" s="28">
         <v>16</v>
@@ -5635,10 +5635,10 @@
         <v>0</v>
       </c>
       <c r="H134" s="18" t="s">
-        <v>159</v>
+        <v>168</v>
       </c>
       <c r="I134" s="18" t="s">
-        <v>267</v>
+        <v>300</v>
       </c>
     </row>
     <row r="135" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -5647,10 +5647,10 @@
       </c>
       <c r="B135" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>VA_SITE_MISC16520</v>
+        <v>VA SITE MISC16520</v>
       </c>
       <c r="C135" s="18" t="s">
-        <v>340</v>
+        <v>265</v>
       </c>
       <c r="D135" s="19">
         <v>16</v>
@@ -5665,7 +5665,7 @@
         <v>0</v>
       </c>
       <c r="I135" s="18" t="s">
-        <v>268</v>
+        <v>301</v>
       </c>
     </row>
     <row r="136" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -5674,10 +5674,10 @@
       </c>
       <c r="B136" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>VA_SITE_MISC16LO</v>
+        <v>VA SITE MISC16LO</v>
       </c>
       <c r="C136" s="18" t="s">
-        <v>340</v>
+        <v>265</v>
       </c>
       <c r="D136" s="28">
         <v>16</v>
@@ -5686,10 +5686,10 @@
       <c r="F136" s="28"/>
       <c r="G136" s="28"/>
       <c r="H136" s="18" t="s">
-        <v>160</v>
+        <v>169</v>
       </c>
       <c r="I136" s="18" t="s">
-        <v>269</v>
+        <v>302</v>
       </c>
     </row>
     <row r="137" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -5698,10 +5698,10 @@
       </c>
       <c r="B137" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>VA_SITE_MISC16500UT</v>
+        <v>VA SITE MISC16500UT</v>
       </c>
       <c r="C137" s="18" t="s">
-        <v>340</v>
+        <v>265</v>
       </c>
       <c r="D137" s="28">
         <v>16</v>
@@ -5716,10 +5716,10 @@
         <v>0</v>
       </c>
       <c r="H137" s="18" t="s">
-        <v>166</v>
+        <v>175</v>
       </c>
       <c r="I137" s="18" t="s">
-        <v>270</v>
+        <v>303</v>
       </c>
     </row>
     <row r="138" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -5728,10 +5728,10 @@
       </c>
       <c r="B138" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>VA_SITE_MISC16500SCALES</v>
+        <v>VA SITE MISC16500SCALES</v>
       </c>
       <c r="C138" s="18" t="s">
-        <v>340</v>
+        <v>265</v>
       </c>
       <c r="D138" s="14">
         <v>16</v>
@@ -5746,10 +5746,10 @@
         <v>0</v>
       </c>
       <c r="H138" s="17" t="s">
-        <v>182</v>
+        <v>191</v>
       </c>
       <c r="I138" s="17" t="s">
-        <v>271</v>
+        <v>304</v>
       </c>
     </row>
     <row r="139" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -5758,10 +5758,10 @@
       </c>
       <c r="B139" s="1" t="str">
         <f t="shared" si="2"/>
-        <v xml:space="preserve">VA_SITE_MISC16 0 </v>
+        <v xml:space="preserve">VA SITE MISC16 0 </v>
       </c>
       <c r="C139" s="18" t="s">
-        <v>340</v>
+        <v>265</v>
       </c>
       <c r="D139" s="19">
         <v>16</v>
@@ -5782,10 +5782,10 @@
       </c>
       <c r="B140" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>VA_SITE_PATI12400CAN</v>
+        <v>VA SITE PATI12400CAN</v>
       </c>
       <c r="C140" s="18" t="s">
-        <v>341</v>
+        <v>305</v>
       </c>
       <c r="D140" s="19">
         <v>12</v>
@@ -5800,10 +5800,10 @@
         <v>0</v>
       </c>
       <c r="H140" s="18" t="s">
-        <v>49</v>
+        <v>58</v>
       </c>
       <c r="I140" s="18" t="s">
-        <v>272</v>
+        <v>306</v>
       </c>
     </row>
     <row r="141" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -5812,10 +5812,10 @@
       </c>
       <c r="B141" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>VA_SITE_PATI12400LAT</v>
+        <v>VA SITE PATI12400LAT</v>
       </c>
       <c r="C141" s="18" t="s">
-        <v>341</v>
+        <v>305</v>
       </c>
       <c r="D141" s="19">
         <v>12</v>
@@ -5830,10 +5830,10 @@
         <v>0</v>
       </c>
       <c r="H141" s="18" t="s">
-        <v>50</v>
+        <v>59</v>
       </c>
       <c r="I141" s="18" t="s">
-        <v>272</v>
+        <v>306</v>
       </c>
     </row>
     <row r="142" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -5842,10 +5842,10 @@
       </c>
       <c r="B142" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>VA_SITE_PATI12400CARPORT</v>
+        <v>VA SITE PATI12400CARPORT</v>
       </c>
       <c r="C142" s="18" t="s">
-        <v>341</v>
+        <v>305</v>
       </c>
       <c r="D142" s="19">
         <v>12</v>
@@ -5860,10 +5860,10 @@
         <v>0</v>
       </c>
       <c r="H142" s="18" t="s">
-        <v>51</v>
+        <v>60</v>
       </c>
       <c r="I142" s="18" t="s">
-        <v>273</v>
+        <v>307</v>
       </c>
     </row>
     <row r="143" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -5872,10 +5872,10 @@
       </c>
       <c r="B143" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>VA_SITE_PATI12400DECK</v>
+        <v>VA SITE PATI12400DECK</v>
       </c>
       <c r="C143" s="18" t="s">
-        <v>341</v>
+        <v>305</v>
       </c>
       <c r="D143" s="19">
         <v>12</v>
@@ -5890,10 +5890,10 @@
         <v>0</v>
       </c>
       <c r="H143" s="18" t="s">
-        <v>98</v>
+        <v>107</v>
       </c>
       <c r="I143" s="18" t="s">
-        <v>253</v>
+        <v>286</v>
       </c>
     </row>
     <row r="144" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -5902,10 +5902,10 @@
       </c>
       <c r="B144" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>VA_SITE_PATI12400PTO</v>
+        <v>VA SITE PATI12400PTO</v>
       </c>
       <c r="C144" s="18" t="s">
-        <v>341</v>
+        <v>305</v>
       </c>
       <c r="D144" s="19">
         <v>12</v>
@@ -5920,10 +5920,10 @@
         <v>0</v>
       </c>
       <c r="H144" s="18" t="s">
-        <v>99</v>
+        <v>108</v>
       </c>
       <c r="I144" s="18" t="s">
-        <v>253</v>
+        <v>286</v>
       </c>
     </row>
     <row r="145" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -5932,10 +5932,10 @@
       </c>
       <c r="B145" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>VA_SITE_PATI12400STAIRS</v>
+        <v>VA SITE PATI12400STAIRS</v>
       </c>
       <c r="C145" s="18" t="s">
-        <v>341</v>
+        <v>305</v>
       </c>
       <c r="D145" s="19">
         <v>12</v>
@@ -5950,10 +5950,10 @@
         <v>0</v>
       </c>
       <c r="H145" s="18" t="s">
-        <v>110</v>
+        <v>119</v>
       </c>
       <c r="I145" s="18" t="s">
-        <v>274</v>
+        <v>308</v>
       </c>
     </row>
     <row r="146" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -5962,10 +5962,10 @@
       </c>
       <c r="B146" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>VA_SITE_PIPE28751</v>
+        <v>VA SITE PIPE28751</v>
       </c>
       <c r="C146" s="18" t="s">
-        <v>342</v>
+        <v>309</v>
       </c>
       <c r="D146" s="19">
         <v>28</v>
@@ -5980,7 +5980,7 @@
         <v>1</v>
       </c>
       <c r="I146" s="18" t="s">
-        <v>275</v>
+        <v>310</v>
       </c>
     </row>
     <row r="147" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -5989,10 +5989,10 @@
       </c>
       <c r="B147" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>VA_SITE_PIPE28751PIPES</v>
+        <v>VA SITE PIPE28751PIPES</v>
       </c>
       <c r="C147" s="18" t="s">
-        <v>342</v>
+        <v>309</v>
       </c>
       <c r="D147" s="28">
         <v>28</v>
@@ -6007,10 +6007,10 @@
         <v>1</v>
       </c>
       <c r="H147" s="18" t="s">
-        <v>167</v>
+        <v>176</v>
       </c>
       <c r="I147" s="27" t="s">
-        <v>270</v>
+        <v>303</v>
       </c>
     </row>
     <row r="148" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -6019,10 +6019,10 @@
       </c>
       <c r="B148" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>VA_SITE_PKNG7400PA</v>
+        <v>VA SITE PKNG7400PA</v>
       </c>
       <c r="C148" s="18" t="s">
-        <v>343</v>
+        <v>311</v>
       </c>
       <c r="D148" s="19">
         <v>7</v>
@@ -6037,10 +6037,10 @@
         <v>0</v>
       </c>
       <c r="H148" s="18" t="s">
-        <v>177</v>
+        <v>186</v>
       </c>
       <c r="I148" s="27" t="s">
-        <v>276</v>
+        <v>312</v>
       </c>
     </row>
     <row r="149" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -6049,10 +6049,10 @@
       </c>
       <c r="B149" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>VA_SITE_PKNG7400PC</v>
+        <v>VA SITE PKNG7400PC</v>
       </c>
       <c r="C149" s="18" t="s">
-        <v>343</v>
+        <v>311</v>
       </c>
       <c r="D149" s="19">
         <v>7</v>
@@ -6067,10 +6067,10 @@
         <v>0</v>
       </c>
       <c r="H149" s="18" t="s">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="I149" s="18" t="s">
-        <v>276</v>
+        <v>312</v>
       </c>
     </row>
     <row r="150" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -6079,10 +6079,10 @@
       </c>
       <c r="B150" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>VA_SITE_RAIL10420</v>
+        <v>VA SITE RAIL10420</v>
       </c>
       <c r="C150" s="18" t="s">
-        <v>344</v>
+        <v>313</v>
       </c>
       <c r="D150" s="19">
         <v>10</v>
@@ -6097,7 +6097,7 @@
         <v>0</v>
       </c>
       <c r="I150" s="18" t="s">
-        <v>277</v>
+        <v>314</v>
       </c>
     </row>
     <row r="151" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -6106,10 +6106,10 @@
       </c>
       <c r="B151" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>VA_SITE_RAIL10400</v>
+        <v>VA SITE RAIL10400</v>
       </c>
       <c r="C151" s="18" t="s">
-        <v>344</v>
+        <v>313</v>
       </c>
       <c r="D151" s="19">
         <v>10</v>
@@ -6124,7 +6124,7 @@
         <v>0</v>
       </c>
       <c r="I151" s="18" t="s">
-        <v>278</v>
+        <v>315</v>
       </c>
     </row>
     <row r="152" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -6133,16 +6133,16 @@
       </c>
       <c r="B152" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>VA_SITE_RETA204/200</v>
+        <v>VA SITE RETA204/200</v>
       </c>
       <c r="C152" s="18" t="s">
-        <v>345</v>
+        <v>316</v>
       </c>
       <c r="D152" s="19">
         <v>20</v>
       </c>
       <c r="E152" s="14" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="F152" s="19">
         <v>0</v>
@@ -6151,7 +6151,7 @@
         <v>0</v>
       </c>
       <c r="I152" s="18" t="s">
-        <v>279</v>
+        <v>317</v>
       </c>
     </row>
     <row r="153" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -6160,16 +6160,16 @@
       </c>
       <c r="B153" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>VA_SITE_RETA204/220</v>
+        <v>VA SITE RETA204/220</v>
       </c>
       <c r="C153" s="18" t="s">
-        <v>345</v>
+        <v>316</v>
       </c>
       <c r="D153" s="19">
         <v>20</v>
       </c>
       <c r="E153" s="14" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="F153" s="19">
         <v>2</v>
@@ -6178,7 +6178,7 @@
         <v>0</v>
       </c>
       <c r="I153" s="18" t="s">
-        <v>279</v>
+        <v>317</v>
       </c>
     </row>
     <row r="154" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -6187,10 +6187,10 @@
       </c>
       <c r="B154" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>VA_SITE_ROCK22610RIPRAP</v>
+        <v>VA SITE ROCK22610RIPRAP</v>
       </c>
       <c r="C154" s="18" t="s">
-        <v>346</v>
+        <v>318</v>
       </c>
       <c r="D154" s="19">
         <v>22</v>
@@ -6205,10 +6205,10 @@
         <v>0</v>
       </c>
       <c r="H154" s="18" t="s">
-        <v>100</v>
+        <v>109</v>
       </c>
       <c r="I154" s="18" t="s">
-        <v>253</v>
+        <v>286</v>
       </c>
       <c r="J154" s="3"/>
     </row>
@@ -6218,10 +6218,10 @@
       </c>
       <c r="B155" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>VA_SITE_ROCK22610ROCK</v>
+        <v>VA SITE ROCK22610ROCK</v>
       </c>
       <c r="C155" s="18" t="s">
-        <v>346</v>
+        <v>318</v>
       </c>
       <c r="D155" s="19">
         <v>22</v>
@@ -6236,10 +6236,10 @@
         <v>0</v>
       </c>
       <c r="H155" s="18" t="s">
-        <v>101</v>
+        <v>110</v>
       </c>
       <c r="I155" s="18" t="s">
-        <v>253</v>
+        <v>286</v>
       </c>
       <c r="J155" s="3"/>
     </row>
@@ -6249,10 +6249,10 @@
       </c>
       <c r="B156" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>VA_SITE_ROCK22610ROCKS</v>
+        <v>VA SITE ROCK22610ROCKS</v>
       </c>
       <c r="C156" s="18" t="s">
-        <v>346</v>
+        <v>318</v>
       </c>
       <c r="D156" s="19">
         <v>22</v>
@@ -6267,10 +6267,10 @@
         <v>0</v>
       </c>
       <c r="H156" s="18" t="s">
-        <v>102</v>
+        <v>111</v>
       </c>
       <c r="I156" s="18" t="s">
-        <v>253</v>
+        <v>286</v>
       </c>
     </row>
     <row r="157" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -6279,10 +6279,10 @@
       </c>
       <c r="B157" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>VA_SITE_SIGN32400SIGN</v>
+        <v>VA SITE SIGN32400SIGN</v>
       </c>
       <c r="C157" s="18" t="s">
-        <v>347</v>
+        <v>319</v>
       </c>
       <c r="D157" s="19">
         <v>32</v>
@@ -6297,10 +6297,10 @@
         <v>0</v>
       </c>
       <c r="H157" s="18" t="s">
-        <v>126</v>
+        <v>135</v>
       </c>
       <c r="I157" s="35" t="s">
-        <v>280</v>
+        <v>320</v>
       </c>
     </row>
     <row r="158" spans="1:10" s="3" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -6309,10 +6309,10 @@
       </c>
       <c r="B158" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>VA_SITE_SIGN32SGN1P</v>
+        <v>VA SITE SIGN32SGN1P</v>
       </c>
       <c r="C158" s="18" t="s">
-        <v>347</v>
+        <v>319</v>
       </c>
       <c r="D158" s="19">
         <v>32</v>
@@ -6321,10 +6321,10 @@
       <c r="F158" s="19"/>
       <c r="G158" s="19"/>
       <c r="H158" s="18" t="s">
-        <v>127</v>
+        <v>136</v>
       </c>
       <c r="I158" s="35" t="s">
-        <v>281</v>
+        <v>321</v>
       </c>
       <c r="J158" s="2"/>
     </row>
@@ -6334,10 +6334,10 @@
       </c>
       <c r="B159" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>VA_SITE_SIGN32SGN2P</v>
+        <v>VA SITE SIGN32SGN2P</v>
       </c>
       <c r="C159" s="18" t="s">
-        <v>347</v>
+        <v>319</v>
       </c>
       <c r="D159" s="19">
         <v>32</v>
@@ -6346,10 +6346,10 @@
       <c r="F159" s="19"/>
       <c r="G159" s="19"/>
       <c r="H159" s="18" t="s">
-        <v>128</v>
+        <v>137</v>
       </c>
       <c r="I159" s="35" t="s">
-        <v>281</v>
+        <v>321</v>
       </c>
       <c r="J159" s="2"/>
     </row>
@@ -6359,10 +6359,10 @@
       </c>
       <c r="B160" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>VA_SITE_SPRT30700ATH COURT</v>
+        <v>VA SITE SPRT30700ATH COURT</v>
       </c>
       <c r="C160" s="18" t="s">
-        <v>348</v>
+        <v>322</v>
       </c>
       <c r="D160" s="19">
         <v>30</v>
@@ -6377,10 +6377,10 @@
         <v>0</v>
       </c>
       <c r="H160" s="18" t="s">
-        <v>282</v>
+        <v>323</v>
       </c>
       <c r="I160" s="18" t="s">
-        <v>283</v>
+        <v>324</v>
       </c>
     </row>
     <row r="161" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -6389,10 +6389,10 @@
       </c>
       <c r="B161" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>VA_SITE_SPRT30700BBCT</v>
+        <v>VA SITE SPRT30700BBCT</v>
       </c>
       <c r="C161" s="18" t="s">
-        <v>348</v>
+        <v>322</v>
       </c>
       <c r="D161" s="19">
         <v>30</v>
@@ -6407,10 +6407,10 @@
         <v>0</v>
       </c>
       <c r="H161" s="18" t="s">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="I161" s="18" t="s">
-        <v>283</v>
+        <v>324</v>
       </c>
     </row>
     <row r="162" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -6419,10 +6419,10 @@
       </c>
       <c r="B162" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>VA_SITE_SPRT30700TCT</v>
+        <v>VA SITE SPRT30700TCT</v>
       </c>
       <c r="C162" s="18" t="s">
-        <v>348</v>
+        <v>322</v>
       </c>
       <c r="D162" s="19">
         <v>30</v>
@@ -6437,10 +6437,10 @@
         <v>0</v>
       </c>
       <c r="H162" s="18" t="s">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="I162" s="18" t="s">
-        <v>283</v>
+        <v>324</v>
       </c>
     </row>
     <row r="163" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -6449,10 +6449,10 @@
       </c>
       <c r="B163" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>VA_SITE_SPRT30700TRACK</v>
+        <v>VA SITE SPRT30700TRACK</v>
       </c>
       <c r="C163" s="18" t="s">
-        <v>348</v>
+        <v>322</v>
       </c>
       <c r="D163" s="19">
         <v>30</v>
@@ -6467,10 +6467,10 @@
         <v>0</v>
       </c>
       <c r="H163" s="18" t="s">
-        <v>38</v>
+        <v>47</v>
       </c>
       <c r="I163" s="18" t="s">
-        <v>283</v>
+        <v>324</v>
       </c>
     </row>
     <row r="164" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -6479,10 +6479,10 @@
       </c>
       <c r="B164" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>VA_SITE_SPRT30700VBCT</v>
+        <v>VA SITE SPRT30700VBCT</v>
       </c>
       <c r="C164" s="18" t="s">
-        <v>348</v>
+        <v>322</v>
       </c>
       <c r="D164" s="19">
         <v>30</v>
@@ -6497,10 +6497,10 @@
         <v>0</v>
       </c>
       <c r="H164" s="18" t="s">
-        <v>39</v>
+        <v>48</v>
       </c>
       <c r="I164" s="18" t="s">
-        <v>283</v>
+        <v>324</v>
       </c>
     </row>
     <row r="165" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -6509,10 +6509,10 @@
       </c>
       <c r="B165" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>VA_SITE_SPRT30700BBFLD</v>
+        <v>VA SITE SPRT30700BBFLD</v>
       </c>
       <c r="C165" s="18" t="s">
-        <v>348</v>
+        <v>322</v>
       </c>
       <c r="D165" s="19">
         <v>30</v>
@@ -6527,10 +6527,10 @@
         <v>0</v>
       </c>
       <c r="H165" s="18" t="s">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="I165" s="18" t="s">
-        <v>284</v>
+        <v>325</v>
       </c>
     </row>
     <row r="166" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -6539,10 +6539,10 @@
       </c>
       <c r="B166" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>VA_SITE_SPRT30700FBFLD</v>
+        <v>VA SITE SPRT30700FBFLD</v>
       </c>
       <c r="C166" s="18" t="s">
-        <v>348</v>
+        <v>322</v>
       </c>
       <c r="D166" s="19">
         <v>30</v>
@@ -6557,10 +6557,10 @@
         <v>0</v>
       </c>
       <c r="H166" s="18" t="s">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="I166" s="18" t="s">
-        <v>284</v>
+        <v>325</v>
       </c>
     </row>
     <row r="167" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -6569,10 +6569,10 @@
       </c>
       <c r="B167" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>VA_SITE_SPRT30700HORSESHOES</v>
+        <v>VA SITE SPRT30700HORSESHOES</v>
       </c>
       <c r="C167" s="18" t="s">
-        <v>348</v>
+        <v>322</v>
       </c>
       <c r="D167" s="19">
         <v>30</v>
@@ -6587,10 +6587,10 @@
         <v>0</v>
       </c>
       <c r="H167" s="32" t="s">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="I167" s="18" t="s">
-        <v>284</v>
+        <v>325</v>
       </c>
     </row>
     <row r="168" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -6599,10 +6599,10 @@
       </c>
       <c r="B168" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>VA_SITE_SPRT30700SF</v>
+        <v>VA SITE SPRT30700SF</v>
       </c>
       <c r="C168" s="18" t="s">
-        <v>348</v>
+        <v>322</v>
       </c>
       <c r="D168" s="19">
         <v>30</v>
@@ -6617,10 +6617,10 @@
         <v>0</v>
       </c>
       <c r="H168" s="18" t="s">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="I168" s="18" t="s">
-        <v>284</v>
+        <v>325</v>
       </c>
       <c r="J168" s="13"/>
     </row>
@@ -6630,10 +6630,10 @@
       </c>
       <c r="B169" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>VA_SITE_SPRT30700SOCCER</v>
+        <v>VA SITE SPRT30700SOCCER</v>
       </c>
       <c r="C169" s="18" t="s">
-        <v>348</v>
+        <v>322</v>
       </c>
       <c r="D169" s="19">
         <v>30</v>
@@ -6648,10 +6648,10 @@
         <v>0</v>
       </c>
       <c r="H169" s="18" t="s">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="I169" s="18" t="s">
-        <v>284</v>
+        <v>325</v>
       </c>
     </row>
     <row r="170" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -6660,10 +6660,10 @@
       </c>
       <c r="B170" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>VA_SITE_SPRT30700CG</v>
+        <v>VA SITE SPRT30700CG</v>
       </c>
       <c r="C170" s="18" t="s">
-        <v>348</v>
+        <v>322</v>
       </c>
       <c r="D170" s="19">
         <v>30</v>
@@ -6678,10 +6678,10 @@
         <v>0</v>
       </c>
       <c r="H170" s="18" t="s">
-        <v>47</v>
+        <v>56</v>
       </c>
       <c r="I170" s="18" t="s">
-        <v>285</v>
+        <v>326</v>
       </c>
     </row>
     <row r="171" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -6690,10 +6690,10 @@
       </c>
       <c r="B171" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>VA_SITE_SPRT30700PG</v>
+        <v>VA SITE SPRT30700PG</v>
       </c>
       <c r="C171" s="18" t="s">
-        <v>348</v>
+        <v>322</v>
       </c>
       <c r="D171" s="19">
         <v>30</v>
@@ -6708,10 +6708,10 @@
         <v>0</v>
       </c>
       <c r="H171" s="18" t="s">
-        <v>119</v>
+        <v>128</v>
       </c>
       <c r="I171" s="18" t="s">
-        <v>286</v>
+        <v>327</v>
       </c>
     </row>
     <row r="172" spans="1:10" s="13" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -6720,10 +6720,10 @@
       </c>
       <c r="B172" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>VA_SITE_SPRT30700PARK</v>
+        <v>VA SITE SPRT30700PARK</v>
       </c>
       <c r="C172" s="18" t="s">
-        <v>348</v>
+        <v>322</v>
       </c>
       <c r="D172" s="19">
         <v>30</v>
@@ -6738,10 +6738,10 @@
         <v>0</v>
       </c>
       <c r="H172" s="18" t="s">
-        <v>121</v>
+        <v>130</v>
       </c>
       <c r="I172" s="18" t="s">
-        <v>260</v>
+        <v>293</v>
       </c>
       <c r="J172" s="2"/>
     </row>
@@ -6751,10 +6751,10 @@
       </c>
       <c r="B173" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>VA_SITE_SWLK9600CRT PTH</v>
+        <v>VA SITE SWLK9600CRT PTH</v>
       </c>
       <c r="C173" s="18" t="s">
-        <v>349</v>
+        <v>328</v>
       </c>
       <c r="D173" s="19">
         <v>9</v>
@@ -6769,10 +6769,10 @@
         <v>0</v>
       </c>
       <c r="H173" s="18" t="s">
-        <v>287</v>
+        <v>329</v>
       </c>
       <c r="I173" s="18" t="s">
-        <v>274</v>
+        <v>308</v>
       </c>
       <c r="J173" s="13"/>
     </row>
@@ -6782,10 +6782,10 @@
       </c>
       <c r="B174" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>VA_SITE_SWLK9600CRT PTH DT</v>
+        <v>VA SITE SWLK9600CRT PTH DT</v>
       </c>
       <c r="C174" s="18" t="s">
-        <v>349</v>
+        <v>328</v>
       </c>
       <c r="D174" s="19">
         <v>9</v>
@@ -6800,10 +6800,10 @@
         <v>0</v>
       </c>
       <c r="H174" s="18" t="s">
-        <v>288</v>
+        <v>330</v>
       </c>
       <c r="I174" s="18" t="s">
-        <v>274</v>
+        <v>308</v>
       </c>
     </row>
     <row r="175" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -6812,10 +6812,10 @@
       </c>
       <c r="B175" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>VA_SITE_SWLK9600SA</v>
+        <v>VA SITE SWLK9600SA</v>
       </c>
       <c r="C175" s="18" t="s">
-        <v>349</v>
+        <v>328</v>
       </c>
       <c r="D175" s="19">
         <v>9</v>
@@ -6830,10 +6830,10 @@
         <v>0</v>
       </c>
       <c r="H175" s="18" t="s">
-        <v>111</v>
+        <v>120</v>
       </c>
       <c r="I175" s="18" t="s">
-        <v>274</v>
+        <v>308</v>
       </c>
     </row>
     <row r="176" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -6842,10 +6842,10 @@
       </c>
       <c r="B176" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>VA_SITE_SWLK9600SAB</v>
+        <v>VA SITE SWLK9600SAB</v>
       </c>
       <c r="C176" s="18" t="s">
-        <v>349</v>
+        <v>328</v>
       </c>
       <c r="D176" s="19">
         <v>9</v>
@@ -6860,10 +6860,10 @@
         <v>0</v>
       </c>
       <c r="H176" s="18" t="s">
-        <v>112</v>
+        <v>121</v>
       </c>
       <c r="I176" s="18" t="s">
-        <v>274</v>
+        <v>308</v>
       </c>
     </row>
     <row r="177" spans="1:10" s="13" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -6872,10 +6872,10 @@
       </c>
       <c r="B177" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>VA_SITE_SWLK9600SC</v>
+        <v>VA SITE SWLK9600SC</v>
       </c>
       <c r="C177" s="18" t="s">
-        <v>349</v>
+        <v>328</v>
       </c>
       <c r="D177" s="19">
         <v>9</v>
@@ -6890,10 +6890,10 @@
         <v>0</v>
       </c>
       <c r="H177" s="18" t="s">
-        <v>113</v>
+        <v>122</v>
       </c>
       <c r="I177" s="18" t="s">
-        <v>274</v>
+        <v>308</v>
       </c>
       <c r="J177" s="2"/>
     </row>
@@ -6903,10 +6903,10 @@
       </c>
       <c r="B178" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>VA_SITE_SWLK9600SCB</v>
+        <v>VA SITE SWLK9600SCB</v>
       </c>
       <c r="C178" s="18" t="s">
-        <v>349</v>
+        <v>328</v>
       </c>
       <c r="D178" s="19">
         <v>9</v>
@@ -6921,10 +6921,10 @@
         <v>0</v>
       </c>
       <c r="H178" s="18" t="s">
-        <v>114</v>
+        <v>123</v>
       </c>
       <c r="I178" s="18" t="s">
-        <v>274</v>
+        <v>308</v>
       </c>
     </row>
     <row r="179" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -6933,10 +6933,10 @@
       </c>
       <c r="B179" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>VA_SITE_SWLK9600SDT</v>
+        <v>VA SITE SWLK9600SDT</v>
       </c>
       <c r="C179" s="18" t="s">
-        <v>349</v>
+        <v>328</v>
       </c>
       <c r="D179" s="19">
         <v>9</v>
@@ -6951,10 +6951,10 @@
         <v>0</v>
       </c>
       <c r="H179" s="18" t="s">
-        <v>115</v>
+        <v>124</v>
       </c>
       <c r="I179" s="18" t="s">
-        <v>274</v>
+        <v>308</v>
       </c>
     </row>
     <row r="180" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -6963,10 +6963,10 @@
       </c>
       <c r="B180" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>VA_SITE_SWLK9600SDTB</v>
+        <v>VA SITE SWLK9600SDTB</v>
       </c>
       <c r="C180" s="18" t="s">
-        <v>349</v>
+        <v>328</v>
       </c>
       <c r="D180" s="19">
         <v>9</v>
@@ -6981,10 +6981,10 @@
         <v>0</v>
       </c>
       <c r="H180" s="18" t="s">
-        <v>116</v>
+        <v>125</v>
       </c>
       <c r="I180" s="18" t="s">
-        <v>274</v>
+        <v>308</v>
       </c>
     </row>
     <row r="181" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -6993,10 +6993,10 @@
       </c>
       <c r="B181" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>VA_SITE_SWLK9600SW</v>
+        <v>VA SITE SWLK9600SW</v>
       </c>
       <c r="C181" s="18" t="s">
-        <v>349</v>
+        <v>328</v>
       </c>
       <c r="D181" s="19">
         <v>9</v>
@@ -7011,10 +7011,10 @@
         <v>0</v>
       </c>
       <c r="H181" s="18" t="s">
-        <v>117</v>
+        <v>126</v>
       </c>
       <c r="I181" s="18" t="s">
-        <v>274</v>
+        <v>308</v>
       </c>
     </row>
     <row r="182" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -7023,10 +7023,10 @@
       </c>
       <c r="B182" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>VA_SITE_TANK15300TK</v>
+        <v>VA SITE TANK15300TK</v>
       </c>
       <c r="C182" s="18" t="s">
-        <v>350</v>
+        <v>331</v>
       </c>
       <c r="D182" s="14">
         <v>15</v>
@@ -7041,10 +7041,10 @@
         <v>0</v>
       </c>
       <c r="H182" s="16" t="s">
-        <v>162</v>
+        <v>171</v>
       </c>
       <c r="I182" s="16" t="s">
-        <v>289</v>
+        <v>332</v>
       </c>
     </row>
     <row r="183" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -7053,10 +7053,10 @@
       </c>
       <c r="B183" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>VA_SITE_TRAN17000TT</v>
+        <v>VA SITE TRAN17000TT</v>
       </c>
       <c r="C183" s="18" t="s">
-        <v>351</v>
+        <v>333</v>
       </c>
       <c r="D183" s="19">
         <v>17</v>
@@ -7071,10 +7071,10 @@
         <v>0</v>
       </c>
       <c r="H183" s="18" t="s">
-        <v>169</v>
+        <v>178</v>
       </c>
       <c r="I183" s="18" t="s">
-        <v>290</v>
+        <v>334</v>
       </c>
     </row>
     <row r="184" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -7083,10 +7083,10 @@
       </c>
       <c r="B184" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>VA_SITE_TRAN17000TRANX</v>
+        <v>VA SITE TRAN17000TRANX</v>
       </c>
       <c r="C184" s="18" t="s">
-        <v>351</v>
+        <v>333</v>
       </c>
       <c r="D184" s="19">
         <v>17</v>
@@ -7101,10 +7101,10 @@
         <v>0</v>
       </c>
       <c r="H184" s="18" t="s">
-        <v>170</v>
+        <v>179</v>
       </c>
       <c r="I184" s="18" t="s">
-        <v>291</v>
+        <v>335</v>
       </c>
     </row>
     <row r="185" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -7113,10 +7113,10 @@
       </c>
       <c r="B185" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>VA_SITE_TREE39200T</v>
+        <v>VA SITE TREE39200T</v>
       </c>
       <c r="C185" s="18" t="s">
-        <v>352</v>
+        <v>336</v>
       </c>
       <c r="D185" s="14">
         <v>39</v>
@@ -7131,10 +7131,10 @@
         <v>0</v>
       </c>
       <c r="H185" s="16" t="s">
-        <v>64</v>
+        <v>73</v>
       </c>
       <c r="I185" s="33" t="s">
-        <v>212</v>
+        <v>236</v>
       </c>
     </row>
     <row r="186" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -7143,10 +7143,10 @@
       </c>
       <c r="B186" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>VA_SITE_TREE39STREE</v>
+        <v>VA SITE TREE39STREE</v>
       </c>
       <c r="C186" s="18" t="s">
-        <v>352</v>
+        <v>336</v>
       </c>
       <c r="D186" s="19">
         <v>39</v>
@@ -7155,10 +7155,10 @@
       <c r="F186" s="19"/>
       <c r="G186" s="19"/>
       <c r="H186" s="18" t="s">
-        <v>66</v>
+        <v>75</v>
       </c>
       <c r="I186" s="16" t="s">
-        <v>213</v>
+        <v>237</v>
       </c>
     </row>
     <row r="187" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -7167,10 +7167,10 @@
       </c>
       <c r="B187" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>VA_SITE_TRLS5350</v>
+        <v>VA SITE TRLS5350</v>
       </c>
       <c r="C187" s="18" t="s">
-        <v>353</v>
+        <v>337</v>
       </c>
       <c r="D187" s="19">
         <v>5</v>
@@ -7185,7 +7185,7 @@
         <v>0</v>
       </c>
       <c r="I187" s="27" t="s">
-        <v>292</v>
+        <v>338</v>
       </c>
       <c r="J187" s="5"/>
     </row>
@@ -7195,10 +7195,10 @@
       </c>
       <c r="B188" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>VA_SITE_TRLS5320</v>
+        <v>VA SITE TRLS5320</v>
       </c>
       <c r="C188" s="18" t="s">
-        <v>353</v>
+        <v>337</v>
       </c>
       <c r="D188" s="19">
         <v>5</v>
@@ -7213,7 +7213,7 @@
         <v>0</v>
       </c>
       <c r="I188" s="27" t="s">
-        <v>293</v>
+        <v>339</v>
       </c>
     </row>
     <row r="189" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -7222,10 +7222,10 @@
       </c>
       <c r="B189" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>VA_SITE_UNPK8430PDT</v>
+        <v>VA SITE UNPK8430PDT</v>
       </c>
       <c r="C189" s="18" t="s">
-        <v>354</v>
+        <v>340</v>
       </c>
       <c r="D189" s="19">
         <v>8</v>
@@ -7240,10 +7240,10 @@
         <v>0</v>
       </c>
       <c r="H189" s="18" t="s">
-        <v>178</v>
+        <v>187</v>
       </c>
       <c r="I189" s="27" t="s">
-        <v>276</v>
+        <v>312</v>
       </c>
       <c r="J189" s="5"/>
     </row>
@@ -7253,10 +7253,10 @@
       </c>
       <c r="B190" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>VA_SITE_UNPK8430PGVL</v>
+        <v>VA SITE UNPK8430PGVL</v>
       </c>
       <c r="C190" s="18" t="s">
-        <v>354</v>
+        <v>340</v>
       </c>
       <c r="D190" s="19">
         <v>8</v>
@@ -7271,10 +7271,10 @@
         <v>0</v>
       </c>
       <c r="H190" s="18" t="s">
-        <v>179</v>
+        <v>188</v>
       </c>
       <c r="I190" s="18" t="s">
-        <v>276</v>
+        <v>312</v>
       </c>
     </row>
     <row r="191" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -7283,10 +7283,10 @@
       </c>
       <c r="B191" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>VA_SITE_WALL21500JB</v>
+        <v>VA SITE WALL21500JB</v>
       </c>
       <c r="C191" s="18" t="s">
-        <v>355</v>
+        <v>341</v>
       </c>
       <c r="D191" s="19">
         <v>21</v>
@@ -7301,10 +7301,10 @@
         <v>0</v>
       </c>
       <c r="H191" s="18" t="s">
-        <v>129</v>
+        <v>138</v>
       </c>
       <c r="I191" s="18" t="s">
-        <v>281</v>
+        <v>321</v>
       </c>
     </row>
     <row r="192" spans="1:10" s="5" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -7313,10 +7313,10 @@
       </c>
       <c r="B192" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>VA_SITE_WALL21400</v>
+        <v>VA SITE WALL21400</v>
       </c>
       <c r="C192" s="18" t="s">
-        <v>355</v>
+        <v>341</v>
       </c>
       <c r="D192" s="19">
         <v>21</v>
@@ -7332,7 +7332,7 @@
       </c>
       <c r="H192" s="18"/>
       <c r="I192" s="18" t="s">
-        <v>279</v>
+        <v>317</v>
       </c>
       <c r="J192" s="2"/>
     </row>
@@ -7342,10 +7342,10 @@
       </c>
       <c r="B193" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>VA_SITE_WALL21420</v>
+        <v>VA SITE WALL21420</v>
       </c>
       <c r="C193" s="18" t="s">
-        <v>355</v>
+        <v>341</v>
       </c>
       <c r="D193" s="19">
         <v>21</v>
@@ -7361,7 +7361,7 @@
       </c>
       <c r="H193" s="18"/>
       <c r="I193" s="18" t="s">
-        <v>279</v>
+        <v>317</v>
       </c>
       <c r="J193" s="2"/>
     </row>
@@ -7371,10 +7371,10 @@
       </c>
       <c r="B194" s="1" t="str">
         <f t="shared" ref="B194:B257" si="3">CONCATENATE(C194,D194,E194,F194,G194,H194)</f>
-        <v>VA_SITE_WALL21600</v>
+        <v>VA SITE WALL21600</v>
       </c>
       <c r="C194" s="18" t="s">
-        <v>355</v>
+        <v>341</v>
       </c>
       <c r="D194" s="19">
         <v>21</v>
@@ -7389,7 +7389,7 @@
         <v>0</v>
       </c>
       <c r="I194" s="18" t="s">
-        <v>279</v>
+        <v>317</v>
       </c>
     </row>
     <row r="195" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -7398,10 +7398,10 @@
       </c>
       <c r="B195" s="1" t="str">
         <f t="shared" si="3"/>
-        <v>VA_SITE_WALL21620</v>
+        <v>VA SITE WALL21620</v>
       </c>
       <c r="C195" s="18" t="s">
-        <v>355</v>
+        <v>341</v>
       </c>
       <c r="D195" s="19">
         <v>21</v>
@@ -7416,7 +7416,7 @@
         <v>0</v>
       </c>
       <c r="I195" s="18" t="s">
-        <v>279</v>
+        <v>317</v>
       </c>
     </row>
     <row r="196" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -7425,10 +7425,10 @@
       </c>
       <c r="B196" s="1" t="str">
         <f t="shared" si="3"/>
-        <v>VA_SITE_WATR4116\21IS</v>
+        <v>VA SITE WATR4116\21IS</v>
       </c>
       <c r="C196" s="18" t="s">
-        <v>356</v>
+        <v>342</v>
       </c>
       <c r="D196" s="14">
         <v>41</v>
@@ -7443,10 +7443,10 @@
         <v>1</v>
       </c>
       <c r="H196" s="18" t="s">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="I196" s="18" t="s">
-        <v>294</v>
+        <v>343</v>
       </c>
     </row>
     <row r="197" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -7455,10 +7455,10 @@
       </c>
       <c r="B197" s="1" t="str">
         <f t="shared" si="3"/>
-        <v>VA_SITE_WATR41121</v>
+        <v>VA SITE WATR41121</v>
       </c>
       <c r="C197" s="18" t="s">
-        <v>356</v>
+        <v>342</v>
       </c>
       <c r="D197" s="14">
         <v>41</v>
@@ -7482,10 +7482,10 @@
       </c>
       <c r="B198" s="40" t="str">
         <f t="shared" si="3"/>
-        <v>VA_SITE_WATR4116\21WB</v>
+        <v>VA SITE WATR4116\21WB</v>
       </c>
       <c r="C198" s="41" t="s">
-        <v>356</v>
+        <v>342</v>
       </c>
       <c r="D198" s="42">
         <v>41</v>
@@ -7500,13 +7500,13 @@
         <v>1</v>
       </c>
       <c r="H198" s="41" t="s">
-        <v>152</v>
+        <v>161</v>
       </c>
       <c r="I198" s="41" t="s">
-        <v>295</v>
+        <v>344</v>
       </c>
       <c r="J198" s="13" t="s">
-        <v>296</v>
+        <v>345</v>
       </c>
     </row>
     <row r="199" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -7515,10 +7515,10 @@
       </c>
       <c r="B199" s="1" t="str">
         <f t="shared" si="3"/>
-        <v>VA_SITE_WATR41161FLOODED</v>
+        <v>VA SITE WATR41161FLOODED</v>
       </c>
       <c r="C199" s="18" t="s">
-        <v>356</v>
+        <v>342</v>
       </c>
       <c r="D199" s="14">
         <v>41</v>
@@ -7533,10 +7533,10 @@
         <v>1</v>
       </c>
       <c r="H199" s="18" t="s">
-        <v>151</v>
+        <v>160</v>
       </c>
       <c r="I199" s="18" t="s">
-        <v>295</v>
+        <v>344</v>
       </c>
     </row>
     <row r="200" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -7545,10 +7545,10 @@
       </c>
       <c r="B200" s="1" t="str">
         <f t="shared" si="3"/>
-        <v>VA_SITE_WATR41161WCA</v>
+        <v>VA SITE WATR41161WCA</v>
       </c>
       <c r="C200" s="18" t="s">
-        <v>356</v>
+        <v>342</v>
       </c>
       <c r="D200" s="14">
         <v>41</v>
@@ -7563,10 +7563,10 @@
         <v>1</v>
       </c>
       <c r="H200" s="18" t="s">
-        <v>153</v>
+        <v>162</v>
       </c>
       <c r="I200" s="18" t="s">
-        <v>297</v>
+        <v>346</v>
       </c>
     </row>
     <row r="201" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -7575,10 +7575,10 @@
       </c>
       <c r="B201" s="1" t="str">
         <f t="shared" si="3"/>
-        <v>VA_SITE_WATR41711</v>
+        <v>VA SITE WATR41711</v>
       </c>
       <c r="C201" s="18" t="s">
-        <v>356</v>
+        <v>342</v>
       </c>
       <c r="D201" s="14">
         <v>41</v>
@@ -7594,7 +7594,7 @@
       </c>
       <c r="H201" s="16"/>
       <c r="I201" s="18" t="s">
-        <v>298</v>
+        <v>347</v>
       </c>
     </row>
     <row r="202" spans="1:10" s="13" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -7603,10 +7603,10 @@
       </c>
       <c r="B202" s="1" t="str">
         <f t="shared" si="3"/>
-        <v>VA_SURV_CTRL48000PC</v>
+        <v>VA SURV CTRL48000PC</v>
       </c>
       <c r="C202" s="18" t="s">
-        <v>357</v>
+        <v>348</v>
       </c>
       <c r="D202" s="19">
         <v>48</v>
@@ -7621,10 +7621,10 @@
         <v>0</v>
       </c>
       <c r="H202" s="18" t="s">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="I202" s="18" t="s">
-        <v>299</v>
+        <v>349</v>
       </c>
       <c r="J202" s="2"/>
     </row>
@@ -7634,10 +7634,10 @@
       </c>
       <c r="B203" s="1" t="str">
         <f t="shared" si="3"/>
-        <v>VA_SURV_CTRL48000HVP</v>
+        <v>VA SURV CTRL48000HVP</v>
       </c>
       <c r="C203" s="18" t="s">
-        <v>357</v>
+        <v>348</v>
       </c>
       <c r="D203" s="19">
         <v>48</v>
@@ -7652,10 +7652,10 @@
         <v>0</v>
       </c>
       <c r="H203" s="18" t="s">
-        <v>54</v>
+        <v>63</v>
       </c>
       <c r="I203" s="18" t="s">
-        <v>300</v>
+        <v>350</v>
       </c>
     </row>
     <row r="204" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -7664,10 +7664,10 @@
       </c>
       <c r="B204" s="1" t="str">
         <f t="shared" si="3"/>
-        <v>VA_TOPO_SPOT470X</v>
+        <v>VA TOPO SPOT470X</v>
       </c>
       <c r="C204" s="18" t="s">
-        <v>358</v>
+        <v>351</v>
       </c>
       <c r="D204" s="19">
         <v>47</v>
@@ -7678,10 +7678,10 @@
         <v>0</v>
       </c>
       <c r="H204" s="18" t="s">
-        <v>141</v>
+        <v>150</v>
       </c>
       <c r="I204" s="18" t="s">
-        <v>301</v>
+        <v>352</v>
       </c>
     </row>
     <row r="205" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -7690,10 +7690,10 @@
       </c>
       <c r="B205" s="1" t="str">
         <f t="shared" si="3"/>
-        <v>VA_UTIL_ELEP27POLE</v>
+        <v>VA UTIL ELEP27POLE</v>
       </c>
       <c r="C205" s="18" t="s">
-        <v>359</v>
+        <v>353</v>
       </c>
       <c r="D205" s="19">
         <v>27</v>
@@ -7702,10 +7702,10 @@
       <c r="F205" s="19"/>
       <c r="G205" s="19"/>
       <c r="H205" s="18" t="s">
-        <v>171</v>
+        <v>180</v>
       </c>
       <c r="I205" s="18" t="s">
-        <v>291</v>
+        <v>335</v>
       </c>
     </row>
     <row r="206" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -7714,10 +7714,10 @@
       </c>
       <c r="B206" s="1" t="str">
         <f t="shared" si="3"/>
-        <v>VA_UTIL_ELEP27PPOLEX</v>
+        <v>VA UTIL ELEP27PPOLEX</v>
       </c>
       <c r="C206" s="18" t="s">
-        <v>359</v>
+        <v>353</v>
       </c>
       <c r="D206" s="19">
         <v>27</v>
@@ -7726,10 +7726,10 @@
       <c r="F206" s="19"/>
       <c r="G206" s="19"/>
       <c r="H206" s="18" t="s">
-        <v>172</v>
+        <v>181</v>
       </c>
       <c r="I206" s="18" t="s">
-        <v>291</v>
+        <v>335</v>
       </c>
     </row>
     <row r="207" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -7738,10 +7738,10 @@
       </c>
       <c r="B207" s="1" t="str">
         <f t="shared" si="3"/>
-        <v>VA_UTIL_ELEP27PWRLT</v>
+        <v>VA UTIL ELEP27PWRLT</v>
       </c>
       <c r="C207" s="18" t="s">
-        <v>359</v>
+        <v>353</v>
       </c>
       <c r="D207" s="19">
         <v>27</v>
@@ -7750,10 +7750,10 @@
       <c r="F207" s="19"/>
       <c r="G207" s="19"/>
       <c r="H207" s="18" t="s">
-        <v>173</v>
+        <v>182</v>
       </c>
       <c r="I207" s="18" t="s">
-        <v>291</v>
+        <v>335</v>
       </c>
     </row>
     <row r="208" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -7762,10 +7762,10 @@
       </c>
       <c r="B208" s="1" t="str">
         <f t="shared" si="3"/>
-        <v>VA_UTIL_IRRI26DAM</v>
+        <v>VA UTIL IRRI26DAM</v>
       </c>
       <c r="C208" s="18" t="s">
-        <v>360</v>
+        <v>354</v>
       </c>
       <c r="D208" s="19">
         <v>26</v>
@@ -7774,10 +7774,10 @@
       <c r="F208" s="19"/>
       <c r="G208" s="19"/>
       <c r="H208" s="18" t="s">
-        <v>57</v>
+        <v>66</v>
       </c>
       <c r="I208" s="16" t="s">
-        <v>302</v>
+        <v>355</v>
       </c>
     </row>
     <row r="209" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -7786,10 +7786,10 @@
       </c>
       <c r="B209" s="1" t="str">
         <f t="shared" si="3"/>
-        <v>VA_UTIL_IRRI267LEVEE</v>
+        <v>VA UTIL IRRI267LEVEE</v>
       </c>
       <c r="C209" s="18" t="s">
-        <v>360</v>
+        <v>354</v>
       </c>
       <c r="D209" s="28">
         <v>26</v>
@@ -7800,10 +7800,10 @@
       <c r="F209" s="28"/>
       <c r="G209" s="19"/>
       <c r="H209" s="18" t="s">
-        <v>86</v>
+        <v>95</v>
       </c>
       <c r="I209" s="18" t="s">
-        <v>303</v>
+        <v>356</v>
       </c>
     </row>
     <row r="210" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -7812,10 +7812,10 @@
       </c>
       <c r="B210" s="1" t="str">
         <f t="shared" si="3"/>
-        <v>VA_UTIL_LITP29</v>
+        <v>VA UTIL LITP29</v>
       </c>
       <c r="C210" s="18" t="s">
-        <v>361</v>
+        <v>357</v>
       </c>
       <c r="D210" s="28">
         <v>29</v>
@@ -7824,7 +7824,7 @@
       <c r="F210" s="28"/>
       <c r="G210" s="28"/>
       <c r="I210" s="18" t="s">
-        <v>304</v>
+        <v>358</v>
       </c>
     </row>
     <row r="211" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -7833,10 +7833,10 @@
       </c>
       <c r="B211" s="1" t="str">
         <f t="shared" si="3"/>
-        <v>VA_UTIL_LITP29</v>
+        <v>VA UTIL LITP29</v>
       </c>
       <c r="C211" s="18" t="s">
-        <v>361</v>
+        <v>357</v>
       </c>
       <c r="D211" s="28">
         <v>29</v>
@@ -7846,7 +7846,7 @@
       <c r="G211" s="28"/>
       <c r="H211" s="27"/>
       <c r="I211" s="18" t="s">
-        <v>304</v>
+        <v>358</v>
       </c>
     </row>
     <row r="212" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -7855,10 +7855,10 @@
       </c>
       <c r="B212" s="1" t="str">
         <f t="shared" si="3"/>
-        <v>VA_UTIL_LITP29</v>
+        <v>VA UTIL LITP29</v>
       </c>
       <c r="C212" s="18" t="s">
-        <v>361</v>
+        <v>357</v>
       </c>
       <c r="D212" s="28">
         <v>29</v>
@@ -7867,7 +7867,7 @@
       <c r="F212" s="28"/>
       <c r="G212" s="28"/>
       <c r="I212" s="18" t="s">
-        <v>304</v>
+        <v>358</v>
       </c>
     </row>
     <row r="213" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -7876,10 +7876,10 @@
       </c>
       <c r="B213" s="1" t="str">
         <f t="shared" si="3"/>
-        <v>VA_UTIL_LITP29</v>
+        <v>VA UTIL LITP29</v>
       </c>
       <c r="C213" s="18" t="s">
-        <v>361</v>
+        <v>357</v>
       </c>
       <c r="D213" s="28">
         <v>29</v>
@@ -7888,7 +7888,7 @@
       <c r="F213" s="28"/>
       <c r="G213" s="28"/>
       <c r="I213" s="18" t="s">
-        <v>304</v>
+        <v>358</v>
       </c>
     </row>
     <row r="214" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -7897,10 +7897,10 @@
       </c>
       <c r="B214" s="1" t="str">
         <f t="shared" si="3"/>
-        <v>VA_UTIL_LITP29ALT</v>
+        <v>VA UTIL LITP29ALT</v>
       </c>
       <c r="C214" s="30" t="s">
-        <v>361</v>
+        <v>357</v>
       </c>
       <c r="D214" s="31">
         <v>29</v>
@@ -7909,10 +7909,10 @@
       <c r="F214" s="31"/>
       <c r="G214" s="31"/>
       <c r="H214" s="30" t="s">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="I214" s="30" t="s">
-        <v>304</v>
+        <v>358</v>
       </c>
     </row>
     <row r="215" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -7921,10 +7921,10 @@
       </c>
       <c r="B215" s="1" t="str">
         <f t="shared" si="3"/>
-        <v>VA_UTIL_LITP29LIGHT</v>
+        <v>VA UTIL LITP29LIGHT</v>
       </c>
       <c r="C215" s="18" t="s">
-        <v>361</v>
+        <v>357</v>
       </c>
       <c r="D215" s="28">
         <v>29</v>
@@ -7933,10 +7933,10 @@
       <c r="F215" s="28"/>
       <c r="G215" s="28"/>
       <c r="H215" s="27" t="s">
-        <v>60</v>
+        <v>69</v>
       </c>
       <c r="I215" s="18" t="s">
-        <v>305</v>
+        <v>359</v>
       </c>
     </row>
     <row r="216" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -7945,10 +7945,10 @@
       </c>
       <c r="B216" s="1" t="str">
         <f t="shared" si="3"/>
-        <v>VA_UTIL_MANH24UNI</v>
+        <v>VA UTIL MANH24UNI</v>
       </c>
       <c r="C216" s="18" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="D216" s="14">
         <v>24</v>
@@ -7957,10 +7957,10 @@
       <c r="F216" s="14"/>
       <c r="G216" s="14"/>
       <c r="H216" s="16" t="s">
-        <v>161</v>
+        <v>170</v>
       </c>
       <c r="I216" s="18" t="s">
-        <v>269</v>
+        <v>302</v>
       </c>
     </row>
     <row r="217" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -7969,10 +7969,10 @@
       </c>
       <c r="B217" s="1" t="str">
         <f t="shared" si="3"/>
-        <v>VA_UTIL_MANH24GATEV</v>
+        <v>VA UTIL MANH24GATEV</v>
       </c>
       <c r="C217" s="18" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="D217" s="14">
         <v>24</v>
@@ -7981,10 +7981,10 @@
       <c r="F217" s="14"/>
       <c r="G217" s="14"/>
       <c r="H217" s="18" t="s">
-        <v>163</v>
+        <v>172</v>
       </c>
       <c r="I217" s="18" t="s">
-        <v>306</v>
+        <v>361</v>
       </c>
     </row>
     <row r="218" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -7993,10 +7993,10 @@
       </c>
       <c r="B218" s="1" t="str">
         <f t="shared" si="3"/>
-        <v>VA_UTIL_MANH24MHX</v>
+        <v>VA UTIL MANH24MHX</v>
       </c>
       <c r="C218" s="18" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="D218" s="14">
         <v>24</v>
@@ -8005,10 +8005,10 @@
       <c r="F218" s="14"/>
       <c r="G218" s="14"/>
       <c r="H218" s="16" t="s">
-        <v>164</v>
+        <v>173</v>
       </c>
       <c r="I218" s="18" t="s">
-        <v>306</v>
+        <v>361</v>
       </c>
     </row>
     <row r="219" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -8017,10 +8017,10 @@
       </c>
       <c r="B219" s="1" t="str">
         <f t="shared" si="3"/>
-        <v>VA_UTIL_MANH24SP</v>
+        <v>VA UTIL MANH24SP</v>
       </c>
       <c r="C219" s="18" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="D219" s="14">
         <v>24</v>
@@ -8029,10 +8029,10 @@
       <c r="F219" s="14"/>
       <c r="G219" s="14"/>
       <c r="H219" s="16" t="s">
-        <v>165</v>
+        <v>174</v>
       </c>
       <c r="I219" s="18" t="s">
-        <v>306</v>
+        <v>361</v>
       </c>
     </row>
     <row r="220" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -8041,10 +8041,10 @@
       </c>
       <c r="B220" s="1" t="str">
         <f t="shared" si="3"/>
-        <v>VA_UTIL_STRM31300DI</v>
+        <v>VA UTIL STRM31300DI</v>
       </c>
       <c r="C220" s="18" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="D220" s="34">
         <v>31</v>
@@ -8059,10 +8059,10 @@
         <v>0</v>
       </c>
       <c r="H220" s="18" t="s">
-        <v>76</v>
+        <v>85</v>
       </c>
       <c r="I220" s="18" t="s">
-        <v>307</v>
+        <v>363</v>
       </c>
     </row>
     <row r="221" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -8071,10 +8071,10 @@
       </c>
       <c r="B221" s="1" t="str">
         <f t="shared" si="3"/>
-        <v>VA_UTIL_STRM31300STO BASIN</v>
+        <v>VA UTIL STRM31300STO BASIN</v>
       </c>
       <c r="C221" s="18" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="D221" s="19">
         <v>31</v>
@@ -8089,10 +8089,10 @@
         <v>0</v>
       </c>
       <c r="H221" s="18" t="s">
-        <v>308</v>
+        <v>364</v>
       </c>
       <c r="I221" s="18" t="s">
-        <v>309</v>
+        <v>365</v>
       </c>
     </row>
     <row r="222" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -8101,10 +8101,10 @@
       </c>
       <c r="B222" s="1" t="str">
         <f t="shared" si="3"/>
-        <v>VA_UTIL_STRM31CBX</v>
+        <v>VA UTIL STRM31CBX</v>
       </c>
       <c r="C222" s="18" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="D222" s="28">
         <v>31</v>
@@ -8113,10 +8113,10 @@
       <c r="F222" s="28"/>
       <c r="G222" s="28"/>
       <c r="H222" s="18" t="s">
-        <v>144</v>
+        <v>153</v>
       </c>
       <c r="I222" s="18" t="s">
-        <v>310</v>
+        <v>366</v>
       </c>
     </row>
     <row r="223" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -8125,10 +8125,10 @@
       </c>
       <c r="B223" s="1" t="str">
         <f t="shared" si="3"/>
-        <v>VA_UTIL_STRM31INLETX</v>
+        <v>VA UTIL STRM31INLETX</v>
       </c>
       <c r="C223" s="18" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="D223" s="28">
         <v>31</v>
@@ -8137,10 +8137,10 @@
       <c r="F223" s="28"/>
       <c r="G223" s="28"/>
       <c r="H223" s="18" t="s">
-        <v>145</v>
+        <v>154</v>
       </c>
       <c r="I223" s="18" t="s">
-        <v>310</v>
+        <v>366</v>
       </c>
     </row>
     <row r="224" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -8149,10 +8149,10 @@
       </c>
       <c r="B224" s="1" t="str">
         <f t="shared" si="3"/>
-        <v>VA_UTIL_TRAF34TRAF</v>
+        <v>VA UTIL TRAF34TRAF</v>
       </c>
       <c r="C224" s="18" t="s">
-        <v>364</v>
+        <v>367</v>
       </c>
       <c r="D224" s="19">
         <v>34</v>
@@ -8161,10 +8161,10 @@
       <c r="F224" s="19"/>
       <c r="G224" s="19"/>
       <c r="H224" s="18" t="s">
-        <v>130</v>
+        <v>139</v>
       </c>
       <c r="I224" s="35" t="s">
-        <v>281</v>
+        <v>321</v>
       </c>
     </row>
     <row r="225" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -8173,10 +8173,10 @@
       </c>
       <c r="B225" s="1" t="str">
         <f t="shared" si="3"/>
-        <v>VA_UTIL_TRAF34TRAF W</v>
+        <v>VA UTIL TRAF34TRAF W</v>
       </c>
       <c r="C225" s="18" t="s">
-        <v>364</v>
+        <v>367</v>
       </c>
       <c r="D225" s="19">
         <v>34</v>
@@ -8185,10 +8185,10 @@
       <c r="F225" s="19"/>
       <c r="G225" s="19"/>
       <c r="H225" s="27" t="s">
-        <v>311</v>
+        <v>368</v>
       </c>
       <c r="I225" s="35" t="s">
-        <v>281</v>
+        <v>321</v>
       </c>
     </row>
     <row r="226" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -8197,10 +8197,10 @@
       </c>
       <c r="B226" s="1" t="str">
         <f t="shared" si="3"/>
-        <v>VA_UTIL_WATR25FHX</v>
+        <v>VA UTIL WATR25FHX</v>
       </c>
       <c r="C226" s="18" t="s">
-        <v>365</v>
+        <v>369</v>
       </c>
       <c r="D226" s="28">
         <v>25</v>
@@ -8209,10 +8209,10 @@
       <c r="F226" s="28"/>
       <c r="G226" s="28"/>
       <c r="H226" s="18" t="s">
-        <v>181</v>
+        <v>190</v>
       </c>
       <c r="I226" s="18" t="s">
-        <v>312</v>
+        <v>370</v>
       </c>
     </row>
     <row r="227" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -8221,22 +8221,22 @@
       </c>
       <c r="B227" s="1" t="str">
         <f t="shared" si="3"/>
-        <v>VA_TOPO_LABL494/BL0/BL0/BL</v>
+        <v>VA-TOPO-LABL 494/BL0/BL0/BL</v>
       </c>
       <c r="C227" s="16" t="s">
-        <v>366</v>
+        <v>17</v>
       </c>
       <c r="D227" s="19">
         <v>49</v>
       </c>
       <c r="E227" s="14" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="F227" s="14" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="G227" s="14" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
     </row>
     <row r="228" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -8245,26 +8245,26 @@
       </c>
       <c r="B228" s="1" t="str">
         <f t="shared" si="3"/>
-        <v>VA_TOPO_MAJR 453/BL0/BL2/BL</v>
+        <v>VA-TOPO-MAJR 453/BL0/BL2/BL</v>
       </c>
       <c r="C228" s="16" t="s">
-        <v>367</v>
+        <v>6</v>
       </c>
       <c r="D228" s="19">
         <v>45</v>
       </c>
       <c r="E228" s="14" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="F228" s="14" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="G228" s="14" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="H228" s="37"/>
       <c r="I228" s="18" t="s">
-        <v>313</v>
+        <v>371</v>
       </c>
     </row>
     <row r="229" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -8273,26 +8273,26 @@
       </c>
       <c r="B229" s="1" t="str">
         <f t="shared" si="3"/>
-        <v>VA_TOPO_MAJR_DEPO 690/BL3/BL2/BL</v>
+        <v>VA-TOPO-MAJR-DEPO 690/BL3/BL2/BL</v>
       </c>
       <c r="C229" s="32" t="s">
-        <v>368</v>
+        <v>12</v>
       </c>
       <c r="D229" s="19">
         <v>69</v>
       </c>
       <c r="E229" s="14" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="F229" s="14" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="G229" s="14" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="H229" s="37"/>
       <c r="I229" s="18" t="s">
-        <v>313</v>
+        <v>371</v>
       </c>
     </row>
     <row r="230" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -8301,26 +8301,26 @@
       </c>
       <c r="B230" s="1" t="str">
         <f t="shared" si="3"/>
-        <v>VA_TOPO_MAJR_DEPR 650/BL0/BL2/BL</v>
+        <v>VA-TOPO-MAJR-DEPR 650/BL0/BL2/BL</v>
       </c>
       <c r="C230" s="32" t="s">
-        <v>369</v>
+        <v>8</v>
       </c>
       <c r="D230" s="19">
         <v>65</v>
       </c>
       <c r="E230" s="14" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="F230" s="14" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="G230" s="14" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="H230" s="37"/>
       <c r="I230" s="18" t="s">
-        <v>313</v>
+        <v>371</v>
       </c>
     </row>
     <row r="231" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -8329,26 +8329,26 @@
       </c>
       <c r="B231" s="1" t="str">
         <f t="shared" si="3"/>
-        <v>VA_TOPO_MAJR_OBSC 673/BL3/BL2/BL</v>
+        <v>VA-TOPO-MAJR-OBSC 673/BL3/BL2/BL</v>
       </c>
       <c r="C231" s="32" t="s">
-        <v>370</v>
+        <v>11</v>
       </c>
       <c r="D231" s="19">
         <v>67</v>
       </c>
       <c r="E231" s="14" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="F231" s="14" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="G231" s="14" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="H231" s="37"/>
       <c r="I231" s="18" t="s">
-        <v>313</v>
+        <v>371</v>
       </c>
     </row>
     <row r="232" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -8357,25 +8357,25 @@
       </c>
       <c r="B232" s="1" t="str">
         <f t="shared" si="3"/>
-        <v>VA_TOPO_MINR 462/BL0/BL0/BL</v>
+        <v>VA-TOPO-MINR 462/BL0/BL0/BL</v>
       </c>
       <c r="C232" s="16" t="s">
-        <v>371</v>
+        <v>7</v>
       </c>
       <c r="D232" s="19">
         <v>46</v>
       </c>
       <c r="E232" s="14" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="F232" s="14" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="G232" s="14" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="I232" s="18" t="s">
-        <v>313</v>
+        <v>371</v>
       </c>
     </row>
     <row r="233" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -8384,25 +8384,25 @@
       </c>
       <c r="B233" s="1" t="str">
         <f t="shared" si="3"/>
-        <v>VA_TOPO_MINR_DEPO 700/BL3/BL0/BL</v>
+        <v>VA-TOPO-MINR-DEPO 700/BL3/BL0/BL</v>
       </c>
       <c r="C233" s="32" t="s">
-        <v>372</v>
+        <v>13</v>
       </c>
       <c r="D233" s="19">
         <v>70</v>
       </c>
       <c r="E233" s="14" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="F233" s="14" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="G233" s="14" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="I233" s="18" t="s">
-        <v>313</v>
+        <v>371</v>
       </c>
     </row>
     <row r="234" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -8411,25 +8411,25 @@
       </c>
       <c r="B234" s="1" t="str">
         <f t="shared" si="3"/>
-        <v>VA_TOPO_MINR_DEPR 660/BL0/BL0/BL</v>
+        <v>VA-TOPO-MINR-DEPR 660/BL0/BL0/BL</v>
       </c>
       <c r="C234" s="32" t="s">
-        <v>373</v>
+        <v>9</v>
       </c>
       <c r="D234" s="19">
         <v>66</v>
       </c>
       <c r="E234" s="14" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="F234" s="14" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="G234" s="14" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="I234" s="18" t="s">
-        <v>313</v>
+        <v>371</v>
       </c>
     </row>
     <row r="235" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -8438,25 +8438,25 @@
       </c>
       <c r="B235" s="1" t="str">
         <f t="shared" si="3"/>
-        <v>VA_TOPO_MINR_OBSC 682/BL3/BL0/BL</v>
+        <v>VA-TOPO-MINR-OBSC 682/BL3/BL0/BL</v>
       </c>
       <c r="C235" s="32" t="s">
-        <v>374</v>
+        <v>10</v>
       </c>
       <c r="D235" s="19">
         <v>68</v>
       </c>
       <c r="E235" s="14" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="F235" s="14" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="G235" s="14" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="I235" s="18" t="s">
-        <v>313</v>
+        <v>371</v>
       </c>
     </row>
     <row r="236" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -8474,10 +8474,10 @@
       <c r="F236" s="19"/>
       <c r="G236" s="19"/>
       <c r="H236" s="18" t="s">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="I236" s="18" t="s">
-        <v>314</v>
+        <v>372</v>
       </c>
       <c r="J236" s="3"/>
     </row>
